--- a/right_wrist_Data_Variable.xlsx
+++ b/right_wrist_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60.58673477172852</v>
+        <v>231.2064208984375</v>
       </c>
       <c r="B2" t="n">
-        <v>71.40621948242188</v>
+        <v>234.4236450195312</v>
       </c>
       <c r="C2" t="n">
-        <v>85.85379028320312</v>
+        <v>239.9483032226562</v>
       </c>
       <c r="D2" t="n">
-        <v>102.2748413085938</v>
+        <v>246.2417297363281</v>
       </c>
       <c r="E2" t="n">
-        <v>117.6193542480469</v>
+        <v>252.7174072265625</v>
       </c>
       <c r="F2" t="n">
-        <v>131.2996978759766</v>
+        <v>262.7370300292969</v>
       </c>
       <c r="G2" t="n">
-        <v>141.9811859130859</v>
+        <v>273.72509765625</v>
       </c>
       <c r="H2" t="n">
-        <v>157.1552276611328</v>
+        <v>275.6748352050781</v>
       </c>
       <c r="I2" t="n">
-        <v>172.3140106201172</v>
+        <v>282.5833740234375</v>
       </c>
       <c r="J2" t="n">
-        <v>188.3341674804688</v>
+        <v>289.9856262207031</v>
       </c>
       <c r="K2" t="n">
-        <v>207.3388977050781</v>
+        <v>297.1584777832031</v>
       </c>
       <c r="L2" t="n">
-        <v>223.8471221923828</v>
+        <v>308.7208557128906</v>
       </c>
       <c r="M2" t="n">
-        <v>233.3640441894531</v>
+        <v>323.0054931640625</v>
       </c>
       <c r="N2" t="n">
-        <v>241.6400299072266</v>
+        <v>323.9402465820312</v>
       </c>
       <c r="O2" t="n">
-        <v>246.4068298339844</v>
+        <v>336.5032958984375</v>
       </c>
       <c r="P2" t="n">
-        <v>251.2980499267578</v>
+        <v>341.5866088867188</v>
       </c>
       <c r="Q2" t="n">
-        <v>253.47607421875</v>
+        <v>344.4449462890625</v>
       </c>
       <c r="R2" t="n">
-        <v>255.4291687011719</v>
+        <v>345.9704284667969</v>
       </c>
       <c r="S2" t="n">
-        <v>257.2167053222656</v>
+        <v>345.5191040039062</v>
       </c>
       <c r="T2" t="n">
-        <v>259.1403198242188</v>
+        <v>345.6843872070312</v>
       </c>
       <c r="U2" t="n">
-        <v>260.8155212402344</v>
+        <v>345.4434814453125</v>
       </c>
       <c r="V2" t="n">
-        <v>262.5661315917969</v>
+        <v>344.8263854980469</v>
       </c>
       <c r="W2" t="n">
-        <v>264.0434875488281</v>
+        <v>343.6555480957031</v>
       </c>
       <c r="X2" t="n">
-        <v>264.9254760742188</v>
+        <v>338.7981567382812</v>
       </c>
       <c r="Y2" t="n">
-        <v>265.4922180175781</v>
+        <v>331.5625305175781</v>
       </c>
       <c r="Z2" t="n">
-        <v>265.5677185058594</v>
+        <v>325.6724548339844</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.2502136230469</v>
+        <v>322.5212097167969</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.9058532714844</v>
+        <v>316.8998413085938</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.0549621582031</v>
+        <v>313.8871765136719</v>
       </c>
       <c r="AD2" t="n">
-        <v>269.9444885253906</v>
+        <v>311.6535949707031</v>
       </c>
       <c r="AE2" t="n">
-        <v>271.0005798339844</v>
+        <v>310.9038696289062</v>
       </c>
       <c r="AF2" t="n">
-        <v>271.9903564453125</v>
+        <v>311.8377685546875</v>
       </c>
       <c r="AG2" t="n">
-        <v>272.3046264648438</v>
+        <v>312.69091796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>272.6119995117188</v>
+        <v>312.0800476074219</v>
       </c>
       <c r="AI2" t="n">
-        <v>274.1366577148438</v>
+        <v>310.9598083496094</v>
       </c>
       <c r="AJ2" t="n">
-        <v>276.7946166992188</v>
+        <v>309.1113586425781</v>
       </c>
       <c r="AK2" t="n">
-        <v>278.2666015625</v>
+        <v>308.1031188964844</v>
       </c>
       <c r="AL2" t="n">
-        <v>279.3627319335938</v>
+        <v>304.9507141113281</v>
       </c>
       <c r="AM2" t="n">
-        <v>281.9811096191406</v>
+        <v>301.7978515625</v>
       </c>
       <c r="AN2" t="n">
-        <v>283.9241027832031</v>
+        <v>299.5079650878906</v>
       </c>
       <c r="AO2" t="n">
-        <v>285.9566345214844</v>
+        <v>295.5437316894531</v>
       </c>
       <c r="AP2" t="n">
-        <v>288.0369873046875</v>
+        <v>293.3826904296875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>291.7808532714844</v>
+        <v>290.5791015625</v>
       </c>
       <c r="AR2" t="n">
-        <v>294.2889099121094</v>
+        <v>290.1453552246094</v>
       </c>
       <c r="AS2" t="n">
-        <v>297.044189453125</v>
+        <v>289.1906127929688</v>
       </c>
       <c r="AT2" t="n">
-        <v>299.9503479003906</v>
+        <v>287.7579956054688</v>
       </c>
       <c r="AU2" t="n">
-        <v>300.7253112792969</v>
+        <v>285.2164916992188</v>
       </c>
       <c r="AV2" t="n">
-        <v>300.9662170410156</v>
+        <v>282.1497497558594</v>
       </c>
       <c r="AW2" t="n">
-        <v>299.9497375488281</v>
+        <v>278.7445068359375</v>
       </c>
       <c r="AX2" t="n">
-        <v>301.028076171875</v>
+        <v>272.5249938964844</v>
       </c>
       <c r="AY2" t="n">
-        <v>304.89892578125</v>
+        <v>264.3298950195312</v>
       </c>
       <c r="AZ2" t="n">
-        <v>305.4328308105469</v>
+        <v>255.4591369628906</v>
       </c>
       <c r="BA2" t="n">
-        <v>305.7145080566406</v>
+        <v>247.7099914550781</v>
       </c>
       <c r="BB2" t="n">
-        <v>305.6300354003906</v>
+        <v>238.5742492675781</v>
       </c>
       <c r="BC2" t="n">
-        <v>305.3169555664062</v>
+        <v>230.728759765625</v>
       </c>
       <c r="BD2" t="n">
-        <v>304.3335571289062</v>
+        <v>222.5193634033203</v>
       </c>
       <c r="BE2" t="n">
-        <v>303.7625732421875</v>
+        <v>215.4600219726562</v>
       </c>
       <c r="BF2" t="n">
-        <v>302.4516906738281</v>
+        <v>207.4563598632812</v>
       </c>
       <c r="BG2" t="n">
-        <v>300.5223999023438</v>
+        <v>203.4686584472656</v>
       </c>
       <c r="BH2" t="n">
-        <v>300.6173400878906</v>
+        <v>200.4243774414062</v>
       </c>
       <c r="BI2" t="n">
-        <v>299.9754333496094</v>
+        <v>197.8926239013672</v>
       </c>
       <c r="BJ2" t="n">
-        <v>300.2761535644531</v>
+        <v>194.5227203369141</v>
       </c>
       <c r="BK2" t="n">
-        <v>300.2825622558594</v>
+        <v>191.8693542480469</v>
       </c>
       <c r="BL2" t="n">
-        <v>300.591064453125</v>
+        <v>189.4709777832031</v>
       </c>
       <c r="BM2" t="n">
-        <v>300.0541687011719</v>
+        <v>186.7610321044922</v>
       </c>
       <c r="BN2" t="n">
-        <v>299.277587890625</v>
+        <v>185.4788513183594</v>
       </c>
       <c r="BO2" t="n">
-        <v>297.8117980957031</v>
+        <v>182.5194396972656</v>
       </c>
       <c r="BP2" t="n">
-        <v>297.2274169921875</v>
+        <v>180.5538635253906</v>
       </c>
       <c r="BQ2" t="n">
-        <v>296.8221740722656</v>
+        <v>177.0680389404297</v>
       </c>
       <c r="BR2" t="n">
-        <v>296.4967651367188</v>
+        <v>172.5785980224609</v>
       </c>
       <c r="BS2" t="n">
-        <v>296.0648193359375</v>
+        <v>168.3834991455078</v>
       </c>
       <c r="BT2" t="n">
-        <v>296.904296875</v>
+        <v>166.6735687255859</v>
       </c>
       <c r="BU2" t="n">
-        <v>293.3613586425781</v>
+        <v>164.6020355224609</v>
       </c>
       <c r="BV2" t="n">
-        <v>291.3480224609375</v>
+        <v>163.3300476074219</v>
       </c>
       <c r="BW2" t="n">
-        <v>289.5419921875</v>
+        <v>161.4763641357422</v>
       </c>
       <c r="BX2" t="n">
-        <v>289.9859008789062</v>
+        <v>160.2809448242188</v>
       </c>
       <c r="BY2" t="n">
-        <v>290.3411560058594</v>
+        <v>157.7824554443359</v>
       </c>
       <c r="BZ2" t="n">
-        <v>288.7155151367188</v>
+        <v>156.7574462890625</v>
       </c>
       <c r="CA2" t="n">
-        <v>290.0693664550781</v>
+        <v>156.82421875</v>
       </c>
       <c r="CB2" t="n">
-        <v>292.0990295410156</v>
+        <v>157.531982421875</v>
       </c>
       <c r="CC2" t="n">
-        <v>291.19580078125</v>
+        <v>159.1236114501953</v>
       </c>
       <c r="CD2" t="n">
-        <v>292.5763549804688</v>
+        <v>162.2528381347656</v>
       </c>
       <c r="CE2" t="n">
-        <v>292.3091125488281</v>
+        <v>172.4478759765625</v>
       </c>
       <c r="CF2" t="n">
-        <v>292.6355590820312</v>
+        <v>176.562744140625</v>
       </c>
       <c r="CG2" t="n">
-        <v>293.5111694335938</v>
+        <v>182.9543762207031</v>
       </c>
       <c r="CH2" t="n">
-        <v>293.9026489257812</v>
+        <v>188.7693786621094</v>
       </c>
       <c r="CI2" t="n">
-        <v>293.3215942382812</v>
+        <v>194.9335632324219</v>
       </c>
       <c r="CJ2" t="n">
-        <v>292.5871887207031</v>
+        <v>199.2616577148438</v>
       </c>
       <c r="CK2" t="n">
-        <v>292.1635437011719</v>
+        <v>202.8630065917969</v>
       </c>
       <c r="CL2" t="n">
-        <v>292.26318359375</v>
+        <v>206.5442047119141</v>
       </c>
       <c r="CM2" t="n">
-        <v>292.2726440429688</v>
+        <v>210.3079528808594</v>
       </c>
       <c r="CN2" t="n">
-        <v>292.2279663085938</v>
+        <v>214.2357177734375</v>
       </c>
       <c r="CO2" t="n">
-        <v>292.7519836425781</v>
+        <v>214.3865966796875</v>
       </c>
       <c r="CP2" t="n">
-        <v>292.6109313964844</v>
+        <v>214.0209808349609</v>
       </c>
       <c r="CQ2" t="n">
-        <v>289.8899230957031</v>
+        <v>213.5242004394531</v>
       </c>
       <c r="CR2" t="n">
-        <v>287.470947265625</v>
+        <v>211.4283599853516</v>
       </c>
       <c r="CS2" t="n">
-        <v>290.6944580078125</v>
+        <v>197.0592651367188</v>
       </c>
       <c r="CT2" t="n">
-        <v>293.4031982421875</v>
+        <v>178.7253570556641</v>
       </c>
       <c r="CU2" t="n">
-        <v>289.811279296875</v>
+        <v>171.44580078125</v>
       </c>
       <c r="CV2" t="n">
-        <v>303.5306396484375</v>
+        <v>161.8707885742188</v>
       </c>
       <c r="CW2" t="n">
-        <v>264.5486145019531</v>
+        <v>154.9632568359375</v>
       </c>
       <c r="CX2" t="n">
-        <v>271.081298828125</v>
+        <v>145.4139556884766</v>
       </c>
       <c r="CY2" t="n">
-        <v>293.9361877441406</v>
+        <v>144.4384002685547</v>
       </c>
       <c r="CZ2" t="n">
-        <v>279.7903747558594</v>
+        <v>139.0697937011719</v>
       </c>
       <c r="DA2" t="n">
-        <v>280.0827941894531</v>
+        <v>139.8790740966797</v>
       </c>
       <c r="DB2" t="n">
-        <v>279.7561950683594</v>
+        <v>141.4955902099609</v>
       </c>
       <c r="DC2" t="n">
-        <v>279.6781921386719</v>
+        <v>142.5426788330078</v>
       </c>
       <c r="DD2" t="n">
-        <v>271.8140258789062</v>
+        <v>141.4120635986328</v>
       </c>
       <c r="DE2" t="n">
-        <v>273.8872985839844</v>
+        <v>136.8797302246094</v>
       </c>
       <c r="DF2" t="n">
-        <v>280.4074096679688</v>
+        <v>134.0060272216797</v>
       </c>
       <c r="DG2" t="n">
-        <v>281.1439514160156</v>
+        <v>131.2344970703125</v>
       </c>
       <c r="DH2" t="n">
-        <v>282.3204040527344</v>
+        <v>119.84228515625</v>
       </c>
       <c r="DI2" t="n">
-        <v>281.2875366210938</v>
+        <v>112.9602355957031</v>
       </c>
       <c r="DJ2" t="n">
-        <v>281.375732421875</v>
+        <v>104.2611999511719</v>
       </c>
       <c r="DK2" t="n">
-        <v>273.9769897460938</v>
+        <v>93.69457244873047</v>
       </c>
       <c r="DL2" t="n">
-        <v>276.4661865234375</v>
+        <v>89.25904846191406</v>
       </c>
       <c r="DM2" t="n">
-        <v>277.330322265625</v>
+        <v>90.55339050292969</v>
       </c>
       <c r="DN2" t="n">
-        <v>285.2307739257812</v>
+        <v>89.92300415039062</v>
       </c>
       <c r="DO2" t="n">
-        <v>296.0464477539062</v>
+        <v>90.36032867431641</v>
       </c>
       <c r="DP2" t="n">
-        <v>295.6664733886719</v>
+        <v>95.54782104492188</v>
       </c>
       <c r="DQ2" t="n">
-        <v>299.9773254394531</v>
+        <v>118.6139984130859</v>
       </c>
       <c r="DR2" t="n">
-        <v>300.4504089355469</v>
+        <v>143.5552978515625</v>
       </c>
       <c r="DS2" t="n">
-        <v>301.5365295410156</v>
+        <v>163.4947814941406</v>
       </c>
       <c r="DT2" t="n">
-        <v>301.2300720214844</v>
+        <v>197.6412658691406</v>
       </c>
       <c r="DU2" t="n">
-        <v>307.6250915527344</v>
+        <v>225.5540771484375</v>
       </c>
       <c r="DV2" t="n">
-        <v>304.4755554199219</v>
+        <v>232.6592254638672</v>
       </c>
       <c r="DW2" t="n">
-        <v>303.67431640625</v>
+        <v>240.9993591308594</v>
       </c>
       <c r="DX2" t="n">
-        <v>304.5971984863281</v>
+        <v>245.3475341796875</v>
       </c>
       <c r="DY2" t="n">
-        <v>304.2396545410156</v>
+        <v>250.0170593261719</v>
       </c>
       <c r="DZ2" t="n">
-        <v>305.9486694335938</v>
+        <v>248.6352844238281</v>
       </c>
       <c r="EA2" t="n">
-        <v>308.1297912597656</v>
+        <v>247.3455200195312</v>
       </c>
       <c r="EB2" t="n">
-        <v>312.2089538574219</v>
+        <v>248.8094177246094</v>
       </c>
       <c r="EC2" t="n">
-        <v>310.2251892089844</v>
+        <v>246.61279296875</v>
       </c>
       <c r="ED2" t="n">
-        <v>305.0863952636719</v>
+        <v>244.1719818115234</v>
       </c>
       <c r="EE2" t="n">
-        <v>314.7100219726562</v>
+        <v>246.6707763671875</v>
       </c>
       <c r="EF2" t="n">
-        <v>323.0009765625</v>
+        <v>259.7747192382812</v>
       </c>
       <c r="EG2" t="n">
-        <v>316.9099731445312</v>
+        <v>280.0477294921875</v>
       </c>
       <c r="EH2" t="n">
-        <v>309.5285949707031</v>
+        <v>290.019287109375</v>
       </c>
       <c r="EI2" t="n">
-        <v>304.7841491699219</v>
+        <v>311.7627563476562</v>
       </c>
       <c r="EJ2" t="n">
-        <v>304.1098937988281</v>
+        <v>319.4158935546875</v>
       </c>
       <c r="EK2" t="n">
-        <v>303.6630554199219</v>
+        <v>344.099365234375</v>
       </c>
       <c r="EL2" t="n">
-        <v>302.3501586914062</v>
+        <v>349.1598205566406</v>
       </c>
       <c r="EM2" t="n">
-        <v>300.8832397460938</v>
+        <v>355.6085815429688</v>
       </c>
       <c r="EN2" t="n">
-        <v>298.2600402832031</v>
+        <v>357.6460571289062</v>
       </c>
       <c r="EO2" t="n">
-        <v>294.2543640136719</v>
+        <v>358.3845825195312</v>
       </c>
       <c r="EP2" t="n">
-        <v>292.0785522460938</v>
+        <v>357.8646240234375</v>
       </c>
       <c r="EQ2" t="n">
-        <v>294.6579895019531</v>
+        <v>356.5562438964844</v>
       </c>
       <c r="ER2" t="n">
-        <v>294.9281616210938</v>
+        <v>357.5872802734375</v>
       </c>
       <c r="ES2" t="n">
-        <v>292.0147094726562</v>
+        <v>364.2256164550781</v>
       </c>
       <c r="ET2" t="n">
-        <v>291.2389526367188</v>
+        <v>370.2459716796875</v>
       </c>
       <c r="EU2" t="n">
-        <v>288.24853515625</v>
+        <v>373.2293090820312</v>
       </c>
       <c r="EV2" t="n">
-        <v>292.5867614746094</v>
+        <v>374.8875732421875</v>
       </c>
       <c r="EW2" t="n">
-        <v>293.1929626464844</v>
+        <v>385.6211547851562</v>
       </c>
       <c r="EX2" t="n">
-        <v>292.7471923828125</v>
+        <v>395.4876708984375</v>
       </c>
       <c r="EY2" t="n">
-        <v>293.3204040527344</v>
+        <v>398.3097839355469</v>
       </c>
       <c r="EZ2" t="n">
-        <v>293.2312622070312</v>
+        <v>400.8279724121094</v>
       </c>
       <c r="FA2" t="n">
-        <v>299.6079406738281</v>
+        <v>404.7928466796875</v>
       </c>
       <c r="FB2" t="n">
-        <v>301.1761779785156</v>
+        <v>407.5205078125</v>
       </c>
       <c r="FC2" t="n">
-        <v>298.6131896972656</v>
+        <v>407.7129516601562</v>
       </c>
       <c r="FD2" t="n">
-        <v>300.8733520507812</v>
+        <v>404.2977294921875</v>
       </c>
       <c r="FE2" t="n">
-        <v>303.8468933105469</v>
+        <v>403.2255859375</v>
       </c>
       <c r="FF2" t="n">
-        <v>297.6024780273438</v>
+        <v>400.6582641601562</v>
       </c>
       <c r="FG2" t="n">
-        <v>290.6912536621094</v>
+        <v>395.787841796875</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.1790161132812</v>
+        <v>391.8603515625</v>
       </c>
       <c r="FI2" t="n">
-        <v>297.1742248535156</v>
+        <v>387.9796142578125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>305.0083312988281</v>
+        <v>383.94677734375</v>
       </c>
       <c r="FK2" t="n">
-        <v>308.71435546875</v>
+        <v>380.951171875</v>
       </c>
       <c r="FL2" t="n">
-        <v>310.9720764160156</v>
+        <v>384.4845275878906</v>
       </c>
       <c r="FM2" t="n">
-        <v>303.0756530761719</v>
+        <v>386.4643859863281</v>
       </c>
       <c r="FN2" t="n">
-        <v>290.6820373535156</v>
+        <v>388.2784423828125</v>
       </c>
       <c r="FO2" t="n">
-        <v>297.3561401367188</v>
+        <v>388.4619750976562</v>
       </c>
       <c r="FP2" t="n">
-        <v>291.3330688476562</v>
+        <v>387.2353820800781</v>
       </c>
       <c r="FQ2" t="n">
-        <v>288.4403686523438</v>
+        <v>386.5310363769531</v>
       </c>
       <c r="FR2" t="n">
-        <v>284.3346557617188</v>
+        <v>379.4349975585938</v>
       </c>
       <c r="FS2" t="n">
-        <v>283.0220642089844</v>
+        <v>379.5101928710938</v>
       </c>
       <c r="FT2" t="n">
-        <v>274.4156799316406</v>
+        <v>377.2331237792969</v>
       </c>
       <c r="FU2" t="n">
-        <v>275.1688842773438</v>
+        <v>375.2686157226562</v>
       </c>
       <c r="FV2" t="n">
-        <v>274.9932556152344</v>
+        <v>368.78125</v>
       </c>
       <c r="FW2" t="n">
-        <v>276.7838439941406</v>
+        <v>363.3715515136719</v>
       </c>
       <c r="FX2" t="n">
-        <v>274.5396423339844</v>
+        <v>361.6354370117188</v>
       </c>
       <c r="FY2" t="n">
-        <v>273.6519165039062</v>
+        <v>359.4936828613281</v>
       </c>
       <c r="FZ2" t="n">
-        <v>273.7679443359375</v>
+        <v>355.0503845214844</v>
       </c>
       <c r="GA2" t="n">
-        <v>273.9229125976562</v>
+        <v>353.317626953125</v>
       </c>
       <c r="GB2" t="n">
-        <v>274.4916076660156</v>
+        <v>353.2105102539062</v>
       </c>
       <c r="GC2" t="n">
-        <v>274.9016418457031</v>
+        <v>351.4048461914062</v>
       </c>
       <c r="GD2" t="n">
-        <v>274.8132019042969</v>
+        <v>354.7539978027344</v>
       </c>
       <c r="GE2" t="n">
-        <v>279.46728515625</v>
+        <v>348.5677795410156</v>
       </c>
       <c r="GF2" t="n">
-        <v>278.3541564941406</v>
+        <v>347.9095458984375</v>
       </c>
       <c r="GG2" t="n">
-        <v>278.9364318847656</v>
+        <v>345.8412170410156</v>
       </c>
       <c r="GH2" t="n">
-        <v>278.0877380371094</v>
+        <v>350.7789306640625</v>
       </c>
       <c r="GI2" t="n">
-        <v>279.8025512695312</v>
+        <v>350.2633361816406</v>
       </c>
       <c r="GJ2" t="n">
-        <v>268.0404663085938</v>
+        <v>343.9208679199219</v>
       </c>
       <c r="GK2" t="n">
-        <v>272.0414428710938</v>
+        <v>342.5560302734375</v>
       </c>
       <c r="GL2" t="n">
-        <v>270.4762268066406</v>
+        <v>339.0908203125</v>
       </c>
       <c r="GM2" t="n">
-        <v>270.3180236816406</v>
+        <v>334.9841918945312</v>
       </c>
       <c r="GN2" t="n">
-        <v>270.2898559570312</v>
+        <v>333.8718872070312</v>
       </c>
       <c r="GO2" t="n">
-        <v>259.8422241210938</v>
+        <v>328.8092346191406</v>
       </c>
       <c r="GP2" t="n">
-        <v>252.2793884277344</v>
+        <v>322.8677673339844</v>
       </c>
       <c r="GQ2" t="n">
-        <v>251.2354888916016</v>
+        <v>319.7586975097656</v>
       </c>
       <c r="GR2" t="n">
-        <v>210.5881042480469</v>
+        <v>316.3508605957031</v>
       </c>
       <c r="GS2" t="n">
-        <v>204.9939117431641</v>
+        <v>316.3264770507812</v>
       </c>
       <c r="GT2" t="n">
-        <v>204.6351318359375</v>
+        <v>316.8561096191406</v>
       </c>
       <c r="GU2" t="n">
-        <v>199.6094360351562</v>
+        <v>312.1302490234375</v>
       </c>
       <c r="GV2" t="n">
-        <v>204.2187805175781</v>
+        <v>310.7901306152344</v>
       </c>
       <c r="GW2" t="n">
-        <v>199.2647399902344</v>
+        <v>306.9154663085938</v>
       </c>
       <c r="GX2" t="n">
-        <v>175.6099243164062</v>
+        <v>309.2760314941406</v>
       </c>
       <c r="GY2" t="n">
-        <v>182.7196960449219</v>
+        <v>306.0547180175781</v>
       </c>
       <c r="GZ2" t="n">
-        <v>230.00341796875</v>
+        <v>305.7450256347656</v>
       </c>
       <c r="HA2" t="n">
-        <v>218.3593902587891</v>
+        <v>306.2601318359375</v>
       </c>
       <c r="HB2" t="n">
-        <v>250.9922485351562</v>
+        <v>309.1187133789062</v>
       </c>
       <c r="HC2" t="n">
-        <v>265.1149291992188</v>
+        <v>309.0542602539062</v>
       </c>
       <c r="HD2" t="n">
-        <v>274.2569885253906</v>
+        <v>305.2335205078125</v>
       </c>
       <c r="HE2" t="n">
-        <v>276.6620788574219</v>
+        <v>307.9609375</v>
       </c>
       <c r="HF2" t="n">
-        <v>277.8712463378906</v>
+        <v>308.4927062988281</v>
       </c>
       <c r="HG2" t="n">
-        <v>277.0920104980469</v>
+        <v>304.57958984375</v>
       </c>
       <c r="HH2" t="n">
-        <v>268.9002380371094</v>
+        <v>303.1466064453125</v>
       </c>
       <c r="HI2" t="n">
-        <v>261.5899963378906</v>
+        <v>304.2379150390625</v>
       </c>
       <c r="HJ2" t="n">
-        <v>253.1124572753906</v>
+        <v>310.327392578125</v>
       </c>
       <c r="HK2" t="n">
-        <v>237.0188598632812</v>
+        <v>309.2682495117188</v>
       </c>
       <c r="HL2" t="n">
-        <v>221.5361022949219</v>
+        <v>319.1771545410156</v>
       </c>
       <c r="HM2" t="n">
-        <v>211.1789093017578</v>
+        <v>319.9150085449219</v>
       </c>
       <c r="HN2" t="n">
-        <v>192.3659973144531</v>
+        <v>319.5206909179688</v>
       </c>
       <c r="HO2" t="n">
-        <v>180.9934692382812</v>
+        <v>332.0111389160156</v>
       </c>
       <c r="HP2" t="n">
-        <v>167.7531585693359</v>
+        <v>345.2266845703125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>155.7730560302734</v>
+        <v>350.5217895507812</v>
       </c>
       <c r="HR2" t="n">
-        <v>128.1410369873047</v>
+        <v>369.5079956054688</v>
       </c>
       <c r="HS2" t="n">
-        <v>118.0966110229492</v>
+        <v>370.3121948242188</v>
       </c>
       <c r="HT2" t="n">
-        <v>100.4917907714844</v>
+        <v>373.85595703125</v>
       </c>
       <c r="HU2" t="n">
-        <v>66.27198791503906</v>
+        <v>377.3867797851562</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>380.8070678710938</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>380.7101745605469</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>380.5948181152344</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>380.5972290039062</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>383.598388671875</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>386.2807006835938</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>386.3847351074219</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>386.6988525390625</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>386.0439453125</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>384.76953125</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>383.0158081054688</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>377.0282592773438</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>372.0904541015625</v>
+      </c>
+      <c r="II2" t="n">
+        <v>365.8661499023438</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>357.0681457519531</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>341.29248046875</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>336.3298950195312</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>328.8797607421875</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>315.3429260253906</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>316.6455688476562</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>312.2095336914062</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>311.7160949707031</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>309.7965087890625</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>312.0262451171875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>310.8106689453125</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>310.2955932617188</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>311.2395935058594</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>308.7880249023438</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>308.7669372558594</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>309.0445861816406</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>306.9361877441406</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>311.200439453125</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>309.9446716308594</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>312.4794311523438</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>313.0711364746094</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>319.798095703125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>317.1159057617188</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>318.278076171875</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>319.5426635742188</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>331.238037109375</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>338.3156127929688</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>338.9970397949219</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>348.1796569824219</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>360.3885192871094</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>361.0106811523438</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>356.0433654785156</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>364.7542724609375</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>360.6588745117188</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>354.7247924804688</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>365.4501342773438</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>373.4515686035156</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>372.5052490234375</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>372.4685363769531</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>372.7745971679688</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>372.5140686035156</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>372.5132751464844</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>372.3761596679688</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>371.8338623046875</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>360.0274658203125</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>347.563720703125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>335.6037902832031</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>330.0202026367188</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>329.08056640625</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>328.2037048339844</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>329.7792358398438</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>329.9254760742188</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>329.9844665527344</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>329.3871459960938</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>320.8238220214844</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>316.396728515625</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>308.0251770019531</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>299.6632690429688</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>311.805419921875</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>302.9776916503906</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>315.4007873535156</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>322.7271728515625</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>322.0100708007812</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>322.3588562011719</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>316.01708984375</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>327.7126770019531</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>314.1607971191406</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>316.8223571777344</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>322.1950073242188</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>340.2142333984375</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>344.3329467773438</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>350.4630126953125</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>367.32568359375</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>372.5848388671875</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>373.4884033203125</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>372.0971984863281</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>371.0173950195312</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>368.5809936523438</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>370.1257934570312</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>375.964599609375</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>379.0787048339844</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>381.3636779785156</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>383.7526245117188</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>385.5794677734375</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>387.546630859375</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>375.6385803222656</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>370.9545288085938</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>369.3922424316406</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>374.0952758789062</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>367.6739807128906</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>375.1466369628906</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>385.8867797851562</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>371.0528259277344</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>393.6398620605469</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>383.016845703125</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>357.09375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>335.7324829101562</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>317.5265808105469</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>294.6690979003906</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>225.9228210449219</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>227.8044281005859</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>247.770263671875</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>261.8422546386719</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>261.7135620117188</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>255.7091369628906</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>260.8016967773438</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>257.0201416015625</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>261.2301330566406</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>270.3827819824219</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>275.7065734863281</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>271.0352172851562</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>262.3990783691406</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>224.219482421875</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>214.6939392089844</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>221.4814758300781</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>266.0013732910156</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>255.4092254638672</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>223.7561340332031</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>203.9138793945312</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>179.0464630126953</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>149.2962188720703</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>144.9650268554688</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>146.7162322998047</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>164.92333984375</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>183.3221740722656</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>184.8052978515625</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>185.7177429199219</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>199.7094421386719</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>219.7510070800781</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>221.3728485107422</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>190.4450073242188</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>185.5171203613281</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>178.9656219482422</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>173.4440307617188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>352.130615234375</v>
+        <v>317.1705627441406</v>
       </c>
       <c r="B3" t="n">
-        <v>347.6842041015625</v>
+        <v>331.1086120605469</v>
       </c>
       <c r="C3" t="n">
-        <v>336.0762329101562</v>
+        <v>340.3041381835938</v>
       </c>
       <c r="D3" t="n">
-        <v>328.7062072753906</v>
+        <v>349.2257385253906</v>
       </c>
       <c r="E3" t="n">
-        <v>325.1477661132812</v>
+        <v>362.7876586914062</v>
       </c>
       <c r="F3" t="n">
-        <v>326.3657836914062</v>
+        <v>373.3370971679688</v>
       </c>
       <c r="G3" t="n">
-        <v>332.8791809082031</v>
+        <v>381.2748413085938</v>
       </c>
       <c r="H3" t="n">
-        <v>334.8968200683594</v>
+        <v>389.5032653808594</v>
       </c>
       <c r="I3" t="n">
-        <v>342.8059997558594</v>
+        <v>395.8381652832031</v>
       </c>
       <c r="J3" t="n">
-        <v>350.6477355957031</v>
+        <v>399.6693115234375</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9893188476562</v>
+        <v>397.4643249511719</v>
       </c>
       <c r="L3" t="n">
-        <v>369.4402465820312</v>
+        <v>390.2279357910156</v>
       </c>
       <c r="M3" t="n">
-        <v>379.8106384277344</v>
+        <v>367.8975524902344</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2100219726562</v>
+        <v>359.0283203125</v>
       </c>
       <c r="O3" t="n">
-        <v>344.1711730957031</v>
+        <v>343.7876892089844</v>
       </c>
       <c r="P3" t="n">
-        <v>337.9689331054688</v>
+        <v>337.2005615234375</v>
       </c>
       <c r="Q3" t="n">
-        <v>330.5283813476562</v>
+        <v>333.765869140625</v>
       </c>
       <c r="R3" t="n">
-        <v>323.9372863769531</v>
+        <v>329.3533020019531</v>
       </c>
       <c r="S3" t="n">
-        <v>320.7284545898438</v>
+        <v>328.5696411132812</v>
       </c>
       <c r="T3" t="n">
-        <v>318.1736755371094</v>
+        <v>328.8101501464844</v>
       </c>
       <c r="U3" t="n">
-        <v>314.8153076171875</v>
+        <v>325.7695617675781</v>
       </c>
       <c r="V3" t="n">
-        <v>313.6316833496094</v>
+        <v>327.7913208007812</v>
       </c>
       <c r="W3" t="n">
-        <v>313.1856079101562</v>
+        <v>330.7396850585938</v>
       </c>
       <c r="X3" t="n">
-        <v>311.1716003417969</v>
+        <v>333.8225708007812</v>
       </c>
       <c r="Y3" t="n">
-        <v>311.6445922851562</v>
+        <v>343.7856140136719</v>
       </c>
       <c r="Z3" t="n">
-        <v>311.6964416503906</v>
+        <v>350.9838562011719</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.715087890625</v>
+        <v>354.7069702148438</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.4637145996094</v>
+        <v>360.8319396972656</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.1798400878906</v>
+        <v>365.4084777832031</v>
       </c>
       <c r="AD3" t="n">
-        <v>313.3301696777344</v>
+        <v>368.8305358886719</v>
       </c>
       <c r="AE3" t="n">
-        <v>309.9574279785156</v>
+        <v>370.3750305175781</v>
       </c>
       <c r="AF3" t="n">
-        <v>305.8568725585938</v>
+        <v>368.9378662109375</v>
       </c>
       <c r="AG3" t="n">
-        <v>306.0108337402344</v>
+        <v>368.2992248535156</v>
       </c>
       <c r="AH3" t="n">
-        <v>303.7496337890625</v>
+        <v>367.8385314941406</v>
       </c>
       <c r="AI3" t="n">
-        <v>301.9061584472656</v>
+        <v>363.8450317382812</v>
       </c>
       <c r="AJ3" t="n">
-        <v>303.4299621582031</v>
+        <v>360.3372497558594</v>
       </c>
       <c r="AK3" t="n">
-        <v>304.0027160644531</v>
+        <v>359.5209350585938</v>
       </c>
       <c r="AL3" t="n">
-        <v>304.0392150878906</v>
+        <v>360.2958068847656</v>
       </c>
       <c r="AM3" t="n">
-        <v>300.6211242675781</v>
+        <v>359.8900756835938</v>
       </c>
       <c r="AN3" t="n">
-        <v>298.4254150390625</v>
+        <v>362.0321960449219</v>
       </c>
       <c r="AO3" t="n">
-        <v>298.5580749511719</v>
+        <v>363.6934509277344</v>
       </c>
       <c r="AP3" t="n">
-        <v>297.3448181152344</v>
+        <v>366.0790405273438</v>
       </c>
       <c r="AQ3" t="n">
-        <v>296.6842651367188</v>
+        <v>367.0402221679688</v>
       </c>
       <c r="AR3" t="n">
-        <v>297.5455932617188</v>
+        <v>367.32861328125</v>
       </c>
       <c r="AS3" t="n">
-        <v>297.711669921875</v>
+        <v>367.8237609863281</v>
       </c>
       <c r="AT3" t="n">
-        <v>295.7082214355469</v>
+        <v>368.5180358886719</v>
       </c>
       <c r="AU3" t="n">
-        <v>293.2865905761719</v>
+        <v>369.5140075683594</v>
       </c>
       <c r="AV3" t="n">
-        <v>292.6159362792969</v>
+        <v>369.3043212890625</v>
       </c>
       <c r="AW3" t="n">
-        <v>292.6832580566406</v>
+        <v>368.2479858398438</v>
       </c>
       <c r="AX3" t="n">
-        <v>291.5944519042969</v>
+        <v>365.8045349121094</v>
       </c>
       <c r="AY3" t="n">
-        <v>288.6578674316406</v>
+        <v>362.8440856933594</v>
       </c>
       <c r="AZ3" t="n">
-        <v>286.1680908203125</v>
+        <v>359.2064819335938</v>
       </c>
       <c r="BA3" t="n">
-        <v>286.1885375976562</v>
+        <v>355.8372192382812</v>
       </c>
       <c r="BB3" t="n">
-        <v>286.70751953125</v>
+        <v>351.4974365234375</v>
       </c>
       <c r="BC3" t="n">
-        <v>287.5354919433594</v>
+        <v>346.583251953125</v>
       </c>
       <c r="BD3" t="n">
-        <v>290.6761474609375</v>
+        <v>341.71435546875</v>
       </c>
       <c r="BE3" t="n">
-        <v>290.8504028320312</v>
+        <v>337.7467041015625</v>
       </c>
       <c r="BF3" t="n">
-        <v>289.9036254882812</v>
+        <v>332.6908569335938</v>
       </c>
       <c r="BG3" t="n">
-        <v>287.38330078125</v>
+        <v>328.9757080078125</v>
       </c>
       <c r="BH3" t="n">
-        <v>288.6950988769531</v>
+        <v>326.3945922851562</v>
       </c>
       <c r="BI3" t="n">
-        <v>289.0006713867188</v>
+        <v>324.568115234375</v>
       </c>
       <c r="BJ3" t="n">
-        <v>290.9318542480469</v>
+        <v>324.0425109863281</v>
       </c>
       <c r="BK3" t="n">
-        <v>288.7326049804688</v>
+        <v>324.5045166015625</v>
       </c>
       <c r="BL3" t="n">
-        <v>289.5587158203125</v>
+        <v>326.5577392578125</v>
       </c>
       <c r="BM3" t="n">
-        <v>288.9325866699219</v>
+        <v>329.19677734375</v>
       </c>
       <c r="BN3" t="n">
-        <v>287.7078857421875</v>
+        <v>330.9122619628906</v>
       </c>
       <c r="BO3" t="n">
-        <v>286.9593811035156</v>
+        <v>334.1997985839844</v>
       </c>
       <c r="BP3" t="n">
-        <v>286.60205078125</v>
+        <v>336.0332946777344</v>
       </c>
       <c r="BQ3" t="n">
-        <v>285.1587219238281</v>
+        <v>336.7711486816406</v>
       </c>
       <c r="BR3" t="n">
-        <v>282.2989501953125</v>
+        <v>338.1339721679688</v>
       </c>
       <c r="BS3" t="n">
-        <v>278.6470947265625</v>
+        <v>338.8836975097656</v>
       </c>
       <c r="BT3" t="n">
-        <v>281.7271118164062</v>
+        <v>339.6610412597656</v>
       </c>
       <c r="BU3" t="n">
-        <v>279.8284912109375</v>
+        <v>340.4666748046875</v>
       </c>
       <c r="BV3" t="n">
-        <v>278.5166320800781</v>
+        <v>340.6905822753906</v>
       </c>
       <c r="BW3" t="n">
-        <v>279.0469665527344</v>
+        <v>340.7893371582031</v>
       </c>
       <c r="BX3" t="n">
-        <v>280.3872680664062</v>
+        <v>340.9153442382812</v>
       </c>
       <c r="BY3" t="n">
-        <v>278.7757873535156</v>
+        <v>340.1452331542969</v>
       </c>
       <c r="BZ3" t="n">
-        <v>281.9795532226562</v>
+        <v>339.9822082519531</v>
       </c>
       <c r="CA3" t="n">
-        <v>282.2703857421875</v>
+        <v>339.9438171386719</v>
       </c>
       <c r="CB3" t="n">
-        <v>282.8366394042969</v>
+        <v>339.9822998046875</v>
       </c>
       <c r="CC3" t="n">
-        <v>282.8662109375</v>
+        <v>339.7148742675781</v>
       </c>
       <c r="CD3" t="n">
-        <v>282.7504272460938</v>
+        <v>338.2918090820312</v>
       </c>
       <c r="CE3" t="n">
-        <v>282.6033020019531</v>
+        <v>339.9098815917969</v>
       </c>
       <c r="CF3" t="n">
-        <v>284.3034973144531</v>
+        <v>340.2962341308594</v>
       </c>
       <c r="CG3" t="n">
-        <v>282.2699584960938</v>
+        <v>341.6879577636719</v>
       </c>
       <c r="CH3" t="n">
-        <v>278.035400390625</v>
+        <v>343.2761840820312</v>
       </c>
       <c r="CI3" t="n">
-        <v>276.9897155761719</v>
+        <v>343.1947021484375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>277.7777709960938</v>
+        <v>344.8644409179688</v>
       </c>
       <c r="CK3" t="n">
-        <v>277.1405944824219</v>
+        <v>344.936279296875</v>
       </c>
       <c r="CL3" t="n">
-        <v>278.0316467285156</v>
+        <v>344.8002014160156</v>
       </c>
       <c r="CM3" t="n">
-        <v>278.8863220214844</v>
+        <v>345.1114807128906</v>
       </c>
       <c r="CN3" t="n">
-        <v>278.6499938964844</v>
+        <v>340.729248046875</v>
       </c>
       <c r="CO3" t="n">
-        <v>277.6889953613281</v>
+        <v>338.4087829589844</v>
       </c>
       <c r="CP3" t="n">
-        <v>277.8545837402344</v>
+        <v>334.8805847167969</v>
       </c>
       <c r="CQ3" t="n">
-        <v>279.6793212890625</v>
+        <v>331.0089416503906</v>
       </c>
       <c r="CR3" t="n">
-        <v>280.2930908203125</v>
+        <v>326.3197631835938</v>
       </c>
       <c r="CS3" t="n">
-        <v>278.2118530273438</v>
+        <v>309.4394226074219</v>
       </c>
       <c r="CT3" t="n">
-        <v>275.7879333496094</v>
+        <v>291.2886962890625</v>
       </c>
       <c r="CU3" t="n">
-        <v>279.4090881347656</v>
+        <v>280.0021057128906</v>
       </c>
       <c r="CV3" t="n">
-        <v>238.5929565429688</v>
+        <v>268.1944885253906</v>
       </c>
       <c r="CW3" t="n">
-        <v>265.3106384277344</v>
+        <v>257.3606567382812</v>
       </c>
       <c r="CX3" t="n">
-        <v>276.6736145019531</v>
+        <v>226.5042419433594</v>
       </c>
       <c r="CY3" t="n">
-        <v>227.7999114990234</v>
+        <v>210.963623046875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>272.9963684082031</v>
+        <v>184.4645233154297</v>
       </c>
       <c r="DA3" t="n">
-        <v>276.1997680664062</v>
+        <v>175.9220581054688</v>
       </c>
       <c r="DB3" t="n">
-        <v>273.6231994628906</v>
+        <v>168.3379821777344</v>
       </c>
       <c r="DC3" t="n">
-        <v>275.0954284667969</v>
+        <v>155.8884735107422</v>
       </c>
       <c r="DD3" t="n">
-        <v>278.2044982910156</v>
+        <v>146.8516082763672</v>
       </c>
       <c r="DE3" t="n">
-        <v>270.9091491699219</v>
+        <v>138.1544342041016</v>
       </c>
       <c r="DF3" t="n">
-        <v>282.7031555175781</v>
+        <v>133.2429351806641</v>
       </c>
       <c r="DG3" t="n">
-        <v>285.4152221679688</v>
+        <v>132.6795196533203</v>
       </c>
       <c r="DH3" t="n">
-        <v>288.6516723632812</v>
+        <v>136.673828125</v>
       </c>
       <c r="DI3" t="n">
-        <v>288.8910827636719</v>
+        <v>143.9882507324219</v>
       </c>
       <c r="DJ3" t="n">
-        <v>288.37646484375</v>
+        <v>164.0163726806641</v>
       </c>
       <c r="DK3" t="n">
-        <v>283.6062927246094</v>
+        <v>182.8591613769531</v>
       </c>
       <c r="DL3" t="n">
-        <v>283.5930786132812</v>
+        <v>192.7447814941406</v>
       </c>
       <c r="DM3" t="n">
-        <v>282.4834289550781</v>
+        <v>205.6257476806641</v>
       </c>
       <c r="DN3" t="n">
-        <v>285.2843322753906</v>
+        <v>221.7633819580078</v>
       </c>
       <c r="DO3" t="n">
-        <v>280.0486450195312</v>
+        <v>242.5613861083984</v>
       </c>
       <c r="DP3" t="n">
-        <v>276.8847045898438</v>
+        <v>271.5427856445312</v>
       </c>
       <c r="DQ3" t="n">
-        <v>285.7936706542969</v>
+        <v>310.2205810546875</v>
       </c>
       <c r="DR3" t="n">
-        <v>285.9107055664062</v>
+        <v>337.4261779785156</v>
       </c>
       <c r="DS3" t="n">
-        <v>277.9407958984375</v>
+        <v>349.2120971679688</v>
       </c>
       <c r="DT3" t="n">
-        <v>277.8304748535156</v>
+        <v>365.8323364257812</v>
       </c>
       <c r="DU3" t="n">
-        <v>268.7311096191406</v>
+        <v>372.0247497558594</v>
       </c>
       <c r="DV3" t="n">
-        <v>277.8263549804688</v>
+        <v>374.5607604980469</v>
       </c>
       <c r="DW3" t="n">
-        <v>277.7277221679688</v>
+        <v>375.8436584472656</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.78759765625</v>
+        <v>373.9256896972656</v>
       </c>
       <c r="DY3" t="n">
-        <v>272.7877807617188</v>
+        <v>372.840576171875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>273.2071838378906</v>
+        <v>367.8432922363281</v>
       </c>
       <c r="EA3" t="n">
-        <v>270.998046875</v>
+        <v>365.6152648925781</v>
       </c>
       <c r="EB3" t="n">
-        <v>269.4292602539062</v>
+        <v>360.8831787109375</v>
       </c>
       <c r="EC3" t="n">
-        <v>270.2331237792969</v>
+        <v>359.9776306152344</v>
       </c>
       <c r="ED3" t="n">
-        <v>273.8768615722656</v>
+        <v>360.1719970703125</v>
       </c>
       <c r="EE3" t="n">
-        <v>269.5758361816406</v>
+        <v>357.3787536621094</v>
       </c>
       <c r="EF3" t="n">
-        <v>263.8615112304688</v>
+        <v>356.2922668457031</v>
       </c>
       <c r="EG3" t="n">
-        <v>266.1559448242188</v>
+        <v>355.5836791992188</v>
       </c>
       <c r="EH3" t="n">
-        <v>268.0185241699219</v>
+        <v>357.228271484375</v>
       </c>
       <c r="EI3" t="n">
-        <v>265.3825988769531</v>
+        <v>363.2445373535156</v>
       </c>
       <c r="EJ3" t="n">
-        <v>272.2136535644531</v>
+        <v>361.1072082519531</v>
       </c>
       <c r="EK3" t="n">
-        <v>271.2860717773438</v>
+        <v>358.5630493164062</v>
       </c>
       <c r="EL3" t="n">
-        <v>271.2960205078125</v>
+        <v>354.9464721679688</v>
       </c>
       <c r="EM3" t="n">
-        <v>277.6286010742188</v>
+        <v>353.032470703125</v>
       </c>
       <c r="EN3" t="n">
-        <v>276.1073913574219</v>
+        <v>353.1543579101562</v>
       </c>
       <c r="EO3" t="n">
-        <v>271.2642211914062</v>
+        <v>348.2685852050781</v>
       </c>
       <c r="EP3" t="n">
-        <v>273.5437316894531</v>
+        <v>348.0685119628906</v>
       </c>
       <c r="EQ3" t="n">
-        <v>277.8338012695312</v>
+        <v>350.7242431640625</v>
       </c>
       <c r="ER3" t="n">
-        <v>273.2394714355469</v>
+        <v>350.8027954101562</v>
       </c>
       <c r="ES3" t="n">
-        <v>270.0293884277344</v>
+        <v>348.4893188476562</v>
       </c>
       <c r="ET3" t="n">
-        <v>274.8954772949219</v>
+        <v>354.947509765625</v>
       </c>
       <c r="EU3" t="n">
-        <v>275.2698974609375</v>
+        <v>357.6915893554688</v>
       </c>
       <c r="EV3" t="n">
-        <v>272.2936096191406</v>
+        <v>354.4272155761719</v>
       </c>
       <c r="EW3" t="n">
-        <v>273.0909423828125</v>
+        <v>356.999267578125</v>
       </c>
       <c r="EX3" t="n">
-        <v>272.0281982421875</v>
+        <v>356.0033264160156</v>
       </c>
       <c r="EY3" t="n">
-        <v>272.8514099121094</v>
+        <v>351.761474609375</v>
       </c>
       <c r="EZ3" t="n">
-        <v>269.2031555175781</v>
+        <v>350.999755859375</v>
       </c>
       <c r="FA3" t="n">
-        <v>272.5269470214844</v>
+        <v>355.6296997070312</v>
       </c>
       <c r="FB3" t="n">
-        <v>277.5603332519531</v>
+        <v>357.8553771972656</v>
       </c>
       <c r="FC3" t="n">
-        <v>270.1079406738281</v>
+        <v>352.7776794433594</v>
       </c>
       <c r="FD3" t="n">
-        <v>274.2162170410156</v>
+        <v>357.2607421875</v>
       </c>
       <c r="FE3" t="n">
-        <v>276.8693542480469</v>
+        <v>356.648681640625</v>
       </c>
       <c r="FF3" t="n">
-        <v>276.1136474609375</v>
+        <v>358.29541015625</v>
       </c>
       <c r="FG3" t="n">
-        <v>270.01220703125</v>
+        <v>358.4330749511719</v>
       </c>
       <c r="FH3" t="n">
-        <v>266.552734375</v>
+        <v>357.1286315917969</v>
       </c>
       <c r="FI3" t="n">
-        <v>265.1138000488281</v>
+        <v>356.5980529785156</v>
       </c>
       <c r="FJ3" t="n">
-        <v>269.5091857910156</v>
+        <v>357.233642578125</v>
       </c>
       <c r="FK3" t="n">
-        <v>273.0830688476562</v>
+        <v>359.4924621582031</v>
       </c>
       <c r="FL3" t="n">
-        <v>275.5421752929688</v>
+        <v>358.2967529296875</v>
       </c>
       <c r="FM3" t="n">
-        <v>275.3315734863281</v>
+        <v>356.1201477050781</v>
       </c>
       <c r="FN3" t="n">
-        <v>270.2278137207031</v>
+        <v>354.3378295898438</v>
       </c>
       <c r="FO3" t="n">
-        <v>288.8928527832031</v>
+        <v>354.14208984375</v>
       </c>
       <c r="FP3" t="n">
-        <v>289.5062561035156</v>
+        <v>353.5010070800781</v>
       </c>
       <c r="FQ3" t="n">
-        <v>292.5247192382812</v>
+        <v>352.6464538574219</v>
       </c>
       <c r="FR3" t="n">
-        <v>286.5986022949219</v>
+        <v>352.7316284179688</v>
       </c>
       <c r="FS3" t="n">
-        <v>287.2887268066406</v>
+        <v>353.6624755859375</v>
       </c>
       <c r="FT3" t="n">
-        <v>286.4024963378906</v>
+        <v>353.5587768554688</v>
       </c>
       <c r="FU3" t="n">
-        <v>283.0620727539062</v>
+        <v>350.8140869140625</v>
       </c>
       <c r="FV3" t="n">
-        <v>282.7632446289062</v>
+        <v>356.6220703125</v>
       </c>
       <c r="FW3" t="n">
-        <v>284.6813354492188</v>
+        <v>356.3296813964844</v>
       </c>
       <c r="FX3" t="n">
-        <v>280.5516967773438</v>
+        <v>358.5511779785156</v>
       </c>
       <c r="FY3" t="n">
-        <v>284.1276550292969</v>
+        <v>362.1565551757812</v>
       </c>
       <c r="FZ3" t="n">
-        <v>281.0679321289062</v>
+        <v>362.0430603027344</v>
       </c>
       <c r="GA3" t="n">
-        <v>285.2807006835938</v>
+        <v>363.634521484375</v>
       </c>
       <c r="GB3" t="n">
-        <v>286.6419677734375</v>
+        <v>358.47021484375</v>
       </c>
       <c r="GC3" t="n">
-        <v>287.8059692382812</v>
+        <v>359.2830810546875</v>
       </c>
       <c r="GD3" t="n">
-        <v>287.4689025878906</v>
+        <v>363.2531433105469</v>
       </c>
       <c r="GE3" t="n">
-        <v>271.1494750976562</v>
+        <v>361.5688171386719</v>
       </c>
       <c r="GF3" t="n">
-        <v>276.4974060058594</v>
+        <v>362.1673583984375</v>
       </c>
       <c r="GG3" t="n">
-        <v>278.809326171875</v>
+        <v>360.7966613769531</v>
       </c>
       <c r="GH3" t="n">
-        <v>279.7918395996094</v>
+        <v>356.0371704101562</v>
       </c>
       <c r="GI3" t="n">
-        <v>276.276611328125</v>
+        <v>357.6670837402344</v>
       </c>
       <c r="GJ3" t="n">
-        <v>279.9317932128906</v>
+        <v>359.28662109375</v>
       </c>
       <c r="GK3" t="n">
-        <v>288.0271606445312</v>
+        <v>353.5914001464844</v>
       </c>
       <c r="GL3" t="n">
-        <v>287.3900756835938</v>
+        <v>353.5856628417969</v>
       </c>
       <c r="GM3" t="n">
-        <v>286.6727600097656</v>
+        <v>354.4246826171875</v>
       </c>
       <c r="GN3" t="n">
-        <v>287.3657531738281</v>
+        <v>351.326416015625</v>
       </c>
       <c r="GO3" t="n">
-        <v>279.5304870605469</v>
+        <v>351.8445434570312</v>
       </c>
       <c r="GP3" t="n">
-        <v>278.4211120605469</v>
+        <v>352.6007690429688</v>
       </c>
       <c r="GQ3" t="n">
-        <v>278.1030578613281</v>
+        <v>349.6767578125</v>
       </c>
       <c r="GR3" t="n">
-        <v>219.1689910888672</v>
+        <v>343.6527709960938</v>
       </c>
       <c r="GS3" t="n">
-        <v>211.0605773925781</v>
+        <v>343.9807739257812</v>
       </c>
       <c r="GT3" t="n">
-        <v>230.6008453369141</v>
+        <v>343.5625305175781</v>
       </c>
       <c r="GU3" t="n">
-        <v>193.9751739501953</v>
+        <v>336.3515319824219</v>
       </c>
       <c r="GV3" t="n">
-        <v>187.3108062744141</v>
+        <v>340.5742797851562</v>
       </c>
       <c r="GW3" t="n">
-        <v>186.6186828613281</v>
+        <v>334.6643371582031</v>
       </c>
       <c r="GX3" t="n">
-        <v>202.737060546875</v>
+        <v>336.1325988769531</v>
       </c>
       <c r="GY3" t="n">
-        <v>208.7304840087891</v>
+        <v>329.7036743164062</v>
       </c>
       <c r="GZ3" t="n">
-        <v>199.7410736083984</v>
+        <v>332.3497314453125</v>
       </c>
       <c r="HA3" t="n">
-        <v>252.4278869628906</v>
+        <v>336.4546203613281</v>
       </c>
       <c r="HB3" t="n">
-        <v>275.7597351074219</v>
+        <v>334.6019287109375</v>
       </c>
       <c r="HC3" t="n">
-        <v>273.4508056640625</v>
+        <v>337.6305236816406</v>
       </c>
       <c r="HD3" t="n">
-        <v>263.6369323730469</v>
+        <v>329.4755859375</v>
       </c>
       <c r="HE3" t="n">
-        <v>261.7821960449219</v>
+        <v>333.2123718261719</v>
       </c>
       <c r="HF3" t="n">
-        <v>251.5788421630859</v>
+        <v>333.4815368652344</v>
       </c>
       <c r="HG3" t="n">
-        <v>245.0250091552734</v>
+        <v>328.7030944824219</v>
       </c>
       <c r="HH3" t="n">
-        <v>246.6937103271484</v>
+        <v>330.205810546875</v>
       </c>
       <c r="HI3" t="n">
-        <v>252.0162658691406</v>
+        <v>330.8132019042969</v>
       </c>
       <c r="HJ3" t="n">
-        <v>261.5970764160156</v>
+        <v>338.8678894042969</v>
       </c>
       <c r="HK3" t="n">
-        <v>280.6727905273438</v>
+        <v>335.8370971679688</v>
       </c>
       <c r="HL3" t="n">
-        <v>284.53125</v>
+        <v>346.9547729492188</v>
       </c>
       <c r="HM3" t="n">
-        <v>278.8578796386719</v>
+        <v>352.3445434570312</v>
       </c>
       <c r="HN3" t="n">
-        <v>267.6864624023438</v>
+        <v>355.939208984375</v>
       </c>
       <c r="HO3" t="n">
-        <v>261.0473937988281</v>
+        <v>361.4820861816406</v>
       </c>
       <c r="HP3" t="n">
-        <v>255.148193359375</v>
+        <v>363.8681945800781</v>
       </c>
       <c r="HQ3" t="n">
-        <v>258.7641906738281</v>
+        <v>362.9913940429688</v>
       </c>
       <c r="HR3" t="n">
-        <v>255.3680725097656</v>
+        <v>356.7848205566406</v>
       </c>
       <c r="HS3" t="n">
-        <v>255.6855621337891</v>
+        <v>359.6733093261719</v>
       </c>
       <c r="HT3" t="n">
-        <v>253.4920959472656</v>
+        <v>358.9181518554688</v>
       </c>
       <c r="HU3" t="n">
-        <v>249.6720275878906</v>
+        <v>357.8270568847656</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>356.3003845214844</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>354.8342895507812</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>354.6656188964844</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>353.7405700683594</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>351.8329772949219</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>351.1426696777344</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>350.263427734375</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>350.0430297851562</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>349.6526794433594</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>349.9571533203125</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>350.7201232910156</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>352.3327941894531</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>356.0364074707031</v>
+      </c>
+      <c r="II3" t="n">
+        <v>353.1871337890625</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>354.8934631347656</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>353.1426086425781</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>353.9107055664062</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>351.1706237792969</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>348.8619384765625</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>348.5635681152344</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>337.1040954589844</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>336.5335083007812</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>337.6335144042969</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>342.1813659667969</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>331.3293151855469</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>334.2878112792969</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>342.7625732421875</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>328.3994750976562</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>330.6654357910156</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>330.6201477050781</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>329.3770751953125</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>334.0601196289062</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>336.579833984375</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>334.8990783691406</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>342.623291015625</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>352.4633178710938</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>348.0724182128906</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>358.0008544921875</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>363.4615783691406</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>363.9548950195312</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>360.5177307128906</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>360.6477966308594</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>361.8861694335938</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>360.15087890625</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>360.2095031738281</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>361.4577331542969</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>358.2796325683594</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>359.1885375976562</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>358.9966735839844</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>360.8326110839844</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>358.8495483398438</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>360.1320495605469</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>360.2369995117188</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>360.1463012695312</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>360.9237365722656</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>361.4736328125</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>361.5824584960938</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>359.2020568847656</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>359.5180358886719</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>351.4807739257812</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>346.3816528320312</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>340.1632690429688</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>339.0301208496094</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>338.06787109375</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>339.3056640625</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>338.8716735839844</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>339.9531860351562</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>339.8745727539062</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>327.6771545410156</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>311.8462829589844</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>291.6068420410156</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>275.7796630859375</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>242.6326904296875</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>234.8082427978516</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>221.2733154296875</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>218.0819396972656</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>213.5636596679688</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>212.1381072998047</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>214.4774475097656</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>218.1328582763672</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>220.7724456787109</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>221.8335571289062</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>234.1874847412109</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>321.7572021484375</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>330.1900939941406</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>339.7416076660156</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>355.4202575683594</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>360.1365966796875</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>360.8330078125</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>360.8995056152344</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>369.3560791015625</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>373.3700256347656</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>377.972900390625</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>376.3431091308594</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>377.0018615722656</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>376.6709289550781</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>373.780029296875</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>372.9915466308594</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>374.1698608398438</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>371.4775085449219</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>375.3438110351562</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>378.68701171875</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>377.2453002929688</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>373.8507385253906</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>376.4366455078125</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>375.3784484863281</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>370.1877136230469</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>399.9702758789062</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>398.3385620117188</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>402.79931640625</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>414.0140991210938</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>417.43505859375</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>411.7088928222656</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>368.844970703125</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>369.036376953125</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>385.9568786621094</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>399.3226623535156</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>403.9518127441406</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>402.26708984375</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>458.3406066894531</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>489.5613708496094</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>486.1451416015625</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>479.3230895996094</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>472.4210510253906</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>480.4378967285156</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>503.8280334472656</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>452.2657165527344</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>437.7178039550781</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>399.3144226074219</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>309.2743225097656</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>306.5696411132812</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>287.9593200683594</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>293.6552734375</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>376.9544372558594</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>493.5318908691406</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>493.5387573242188</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>474.0400390625</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>463.0151977539062</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>457.1528015136719</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>455.1411437988281</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>452.6114196777344</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>450.172607421875</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>445.4833679199219</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>429.6964721679688</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>437.9305114746094</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>455.4414367675781</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>476.0399169921875</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>487.2817687988281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>407.3232116699219</v>
+        <v>577.6673583984375</v>
       </c>
       <c r="B4" t="n">
-        <v>436.4339599609375</v>
+        <v>567.0191040039062</v>
       </c>
       <c r="C4" t="n">
-        <v>475.9517822265625</v>
+        <v>577.6777954101562</v>
       </c>
       <c r="D4" t="n">
-        <v>520.2857666015625</v>
+        <v>595.064208984375</v>
       </c>
       <c r="E4" t="n">
-        <v>562.621337890625</v>
+        <v>620.0370483398438</v>
       </c>
       <c r="F4" t="n">
-        <v>607.9448852539062</v>
+        <v>663.0230712890625</v>
       </c>
       <c r="G4" t="n">
-        <v>662.4439086914062</v>
+        <v>717.4884033203125</v>
       </c>
       <c r="H4" t="n">
-        <v>729.0556030273438</v>
+        <v>771.6380004882812</v>
       </c>
       <c r="I4" t="n">
-        <v>782.0824584960938</v>
+        <v>822.6388549804688</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4819946289062</v>
+        <v>883.7658081054688</v>
       </c>
       <c r="K4" t="n">
-        <v>881.4202880859375</v>
+        <v>946.4229125976562</v>
       </c>
       <c r="L4" t="n">
-        <v>933.8770751953125</v>
+        <v>1009.399047851562</v>
       </c>
       <c r="M4" t="n">
-        <v>982.7305297851562</v>
+        <v>1193.229614257812</v>
       </c>
       <c r="N4" t="n">
-        <v>1046.167602539062</v>
+        <v>1192.163818359375</v>
       </c>
       <c r="O4" t="n">
-        <v>1165.297485351562</v>
+        <v>1201.227905273438</v>
       </c>
       <c r="P4" t="n">
-        <v>1222.202026367188</v>
+        <v>1205.854736328125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1265.623168945312</v>
+        <v>1208.525268554688</v>
       </c>
       <c r="R4" t="n">
-        <v>1298.753295898438</v>
+        <v>1220.969482421875</v>
       </c>
       <c r="S4" t="n">
-        <v>1326.681396484375</v>
+        <v>1230.28466796875</v>
       </c>
       <c r="T4" t="n">
-        <v>1356.895385742188</v>
+        <v>1230.931396484375</v>
       </c>
       <c r="U4" t="n">
-        <v>1381.188598632812</v>
+        <v>1246.554565429688</v>
       </c>
       <c r="V4" t="n">
-        <v>1406.089965820312</v>
+        <v>1247.487915039062</v>
       </c>
       <c r="W4" t="n">
-        <v>1430.339965820312</v>
+        <v>1246.28125</v>
       </c>
       <c r="X4" t="n">
-        <v>1461.037475585938</v>
+        <v>1240.504638671875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1485.333618164062</v>
+        <v>1231.923706054688</v>
       </c>
       <c r="Z4" t="n">
-        <v>1507.409790039062</v>
+        <v>1234.104736328125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1545.32177734375</v>
+        <v>1240.349853515625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1596.8193359375</v>
+        <v>1251.743896484375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1641.378540039062</v>
+        <v>1265.037963867188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1693.965087890625</v>
+        <v>1269.408203125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1759.947631835938</v>
+        <v>1278.434326171875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1833.126831054688</v>
+        <v>1294.797485351562</v>
       </c>
       <c r="AG4" t="n">
-        <v>1883.595703125</v>
+        <v>1306.188842773438</v>
       </c>
       <c r="AH4" t="n">
-        <v>1952.866088867188</v>
+        <v>1341.023803710938</v>
       </c>
       <c r="AI4" t="n">
-        <v>2031.935424804688</v>
+        <v>1360.365356445312</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2140.859619140625</v>
+        <v>1365.202758789062</v>
       </c>
       <c r="AK4" t="n">
-        <v>2200.240234375</v>
+        <v>1370.013427734375</v>
       </c>
       <c r="AL4" t="n">
-        <v>2211.1513671875</v>
+        <v>1376.267700195312</v>
       </c>
       <c r="AM4" t="n">
-        <v>2240.501220703125</v>
+        <v>1361.4296875</v>
       </c>
       <c r="AN4" t="n">
-        <v>2346.14599609375</v>
+        <v>1359.010009765625</v>
       </c>
       <c r="AO4" t="n">
-        <v>2428.844970703125</v>
+        <v>1357.755737304688</v>
       </c>
       <c r="AP4" t="n">
-        <v>2492.27392578125</v>
+        <v>1356.77197265625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2528.467529296875</v>
+        <v>1352.404418945312</v>
       </c>
       <c r="AR4" t="n">
-        <v>2585.08740234375</v>
+        <v>1347.82421875</v>
       </c>
       <c r="AS4" t="n">
-        <v>2589.72998046875</v>
+        <v>1347.414428710938</v>
       </c>
       <c r="AT4" t="n">
-        <v>2620.080078125</v>
+        <v>1345.407958984375</v>
       </c>
       <c r="AU4" t="n">
-        <v>2659.870849609375</v>
+        <v>1341.828247070312</v>
       </c>
       <c r="AV4" t="n">
-        <v>2694.232177734375</v>
+        <v>1339.301513671875</v>
       </c>
       <c r="AW4" t="n">
-        <v>2739.306396484375</v>
+        <v>1335.097778320312</v>
       </c>
       <c r="AX4" t="n">
-        <v>2772.96630859375</v>
+        <v>1328.492309570312</v>
       </c>
       <c r="AY4" t="n">
-        <v>2807.5771484375</v>
+        <v>1326.661010742188</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2847.20556640625</v>
+        <v>1327.600341796875</v>
       </c>
       <c r="BA4" t="n">
-        <v>2861.416015625</v>
+        <v>1328.907958984375</v>
       </c>
       <c r="BB4" t="n">
-        <v>2878.01953125</v>
+        <v>1331.31591796875</v>
       </c>
       <c r="BC4" t="n">
-        <v>2877.60791015625</v>
+        <v>1327.329833984375</v>
       </c>
       <c r="BD4" t="n">
-        <v>2881.039794921875</v>
+        <v>1326.194702148438</v>
       </c>
       <c r="BE4" t="n">
-        <v>2905.447021484375</v>
+        <v>1323.011108398438</v>
       </c>
       <c r="BF4" t="n">
-        <v>2953.70556640625</v>
+        <v>1327.762939453125</v>
       </c>
       <c r="BG4" t="n">
-        <v>2885.57080078125</v>
+        <v>1323.954956054688</v>
       </c>
       <c r="BH4" t="n">
-        <v>2920.4892578125</v>
+        <v>1317.525512695312</v>
       </c>
       <c r="BI4" t="n">
-        <v>2948.642578125</v>
+        <v>1292.416259765625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2947.3046875</v>
+        <v>1272.465698242188</v>
       </c>
       <c r="BK4" t="n">
-        <v>2974.85107421875</v>
+        <v>1252.498046875</v>
       </c>
       <c r="BL4" t="n">
-        <v>3019.7392578125</v>
+        <v>1233.912719726562</v>
       </c>
       <c r="BM4" t="n">
-        <v>3039.21142578125</v>
+        <v>1215.911743164062</v>
       </c>
       <c r="BN4" t="n">
-        <v>3068.7060546875</v>
+        <v>1202.619995117188</v>
       </c>
       <c r="BO4" t="n">
-        <v>3105.38720703125</v>
+        <v>1169.516845703125</v>
       </c>
       <c r="BP4" t="n">
-        <v>3155.08349609375</v>
+        <v>1158.124145507812</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3180.184814453125</v>
+        <v>1145.925537109375</v>
       </c>
       <c r="BR4" t="n">
-        <v>3180.42529296875</v>
+        <v>1138.09765625</v>
       </c>
       <c r="BS4" t="n">
-        <v>3192.704345703125</v>
+        <v>1126.547119140625</v>
       </c>
       <c r="BT4" t="n">
-        <v>3243.15087890625</v>
+        <v>1117.496459960938</v>
       </c>
       <c r="BU4" t="n">
-        <v>3299.015625</v>
+        <v>1110.056518554688</v>
       </c>
       <c r="BV4" t="n">
-        <v>3305.873779296875</v>
+        <v>1109.54833984375</v>
       </c>
       <c r="BW4" t="n">
-        <v>3315.28271484375</v>
+        <v>1108.951782226562</v>
       </c>
       <c r="BX4" t="n">
-        <v>3345.093017578125</v>
+        <v>1108.227172851562</v>
       </c>
       <c r="BY4" t="n">
-        <v>3376.685791015625</v>
+        <v>1109.2109375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3506.851806640625</v>
+        <v>1109.834594726562</v>
       </c>
       <c r="CA4" t="n">
-        <v>3499.317626953125</v>
+        <v>1110.7646484375</v>
       </c>
       <c r="CB4" t="n">
-        <v>3472.635986328125</v>
+        <v>1116.80419921875</v>
       </c>
       <c r="CC4" t="n">
-        <v>3509.755859375</v>
+        <v>1127.984375</v>
       </c>
       <c r="CD4" t="n">
-        <v>3475.068115234375</v>
+        <v>1140.536254882812</v>
       </c>
       <c r="CE4" t="n">
-        <v>3481.3076171875</v>
+        <v>1144.505981445312</v>
       </c>
       <c r="CF4" t="n">
-        <v>3506.361328125</v>
+        <v>1145.296752929688</v>
       </c>
       <c r="CG4" t="n">
-        <v>3607.95751953125</v>
+        <v>1145.578979492188</v>
       </c>
       <c r="CH4" t="n">
-        <v>3697.21484375</v>
+        <v>1145.916137695312</v>
       </c>
       <c r="CI4" t="n">
-        <v>3747.784423828125</v>
+        <v>1150.664428710938</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3727.9521484375</v>
+        <v>1155.2548828125</v>
       </c>
       <c r="CK4" t="n">
-        <v>3746.58935546875</v>
+        <v>1153.348876953125</v>
       </c>
       <c r="CL4" t="n">
-        <v>3746.938232421875</v>
+        <v>1152.154174804688</v>
       </c>
       <c r="CM4" t="n">
-        <v>3714.126953125</v>
+        <v>1149.704223632812</v>
       </c>
       <c r="CN4" t="n">
-        <v>3670.032958984375</v>
+        <v>1149.714477539062</v>
       </c>
       <c r="CO4" t="n">
-        <v>3639.388671875</v>
+        <v>1148.810302734375</v>
       </c>
       <c r="CP4" t="n">
-        <v>3612.15771484375</v>
+        <v>1148.82958984375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3681.31494140625</v>
+        <v>1149.170288085938</v>
       </c>
       <c r="CR4" t="n">
-        <v>3651.660400390625</v>
+        <v>1149.834838867188</v>
       </c>
       <c r="CS4" t="n">
-        <v>3589.416748046875</v>
+        <v>1160.697387695312</v>
       </c>
       <c r="CT4" t="n">
-        <v>3572.5791015625</v>
+        <v>1183.667114257812</v>
       </c>
       <c r="CU4" t="n">
-        <v>3609.99462890625</v>
+        <v>1197.410034179688</v>
       </c>
       <c r="CV4" t="n">
-        <v>3533.45849609375</v>
+        <v>1201.776489257812</v>
       </c>
       <c r="CW4" t="n">
-        <v>3815.10009765625</v>
+        <v>1220.203735351562</v>
       </c>
       <c r="CX4" t="n">
-        <v>3750.93505859375</v>
+        <v>1241.581176757812</v>
       </c>
       <c r="CY4" t="n">
-        <v>3581.547119140625</v>
+        <v>1247.518676757812</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3578.776611328125</v>
+        <v>1252.131225585938</v>
       </c>
       <c r="DA4" t="n">
-        <v>3560.864501953125</v>
+        <v>1252.2236328125</v>
       </c>
       <c r="DB4" t="n">
-        <v>3568.587158203125</v>
+        <v>1253.90283203125</v>
       </c>
       <c r="DC4" t="n">
-        <v>3554.37353515625</v>
+        <v>1256.81787109375</v>
       </c>
       <c r="DD4" t="n">
-        <v>3607.078125</v>
+        <v>1260.642944335938</v>
       </c>
       <c r="DE4" t="n">
-        <v>3596.716552734375</v>
+        <v>1255.3916015625</v>
       </c>
       <c r="DF4" t="n">
-        <v>3715.7412109375</v>
+        <v>1250.444946289062</v>
       </c>
       <c r="DG4" t="n">
-        <v>3671.352294921875</v>
+        <v>1245.327392578125</v>
       </c>
       <c r="DH4" t="n">
-        <v>3655.620849609375</v>
+        <v>1221.841064453125</v>
       </c>
       <c r="DI4" t="n">
-        <v>3662.705322265625</v>
+        <v>1219.344116210938</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3651.5224609375</v>
+        <v>1208.68505859375</v>
       </c>
       <c r="DK4" t="n">
-        <v>3713.7783203125</v>
+        <v>1178.336669921875</v>
       </c>
       <c r="DL4" t="n">
-        <v>3707.2958984375</v>
+        <v>1161.040893554688</v>
       </c>
       <c r="DM4" t="n">
-        <v>3704.195068359375</v>
+        <v>1142.570678710938</v>
       </c>
       <c r="DN4" t="n">
-        <v>3663.622314453125</v>
+        <v>1128.878173828125</v>
       </c>
       <c r="DO4" t="n">
-        <v>3521.1298828125</v>
+        <v>1116.61572265625</v>
       </c>
       <c r="DP4" t="n">
-        <v>3511.711181640625</v>
+        <v>1163.37548828125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3517.094970703125</v>
+        <v>1152.13818359375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3500.978515625</v>
+        <v>1133.615600585938</v>
       </c>
       <c r="DS4" t="n">
-        <v>3437.51904296875</v>
+        <v>1109.716186523438</v>
       </c>
       <c r="DT4" t="n">
-        <v>3478.755126953125</v>
+        <v>1132.648559570312</v>
       </c>
       <c r="DU4" t="n">
-        <v>3521.970703125</v>
+        <v>1159.187377929688</v>
       </c>
       <c r="DV4" t="n">
-        <v>3497.0458984375</v>
+        <v>1167.7119140625</v>
       </c>
       <c r="DW4" t="n">
-        <v>3491.236328125</v>
+        <v>1185.419921875</v>
       </c>
       <c r="DX4" t="n">
-        <v>3505.352783203125</v>
+        <v>1184.688720703125</v>
       </c>
       <c r="DY4" t="n">
-        <v>3473.547607421875</v>
+        <v>1176.922485351562</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3460.328369140625</v>
+        <v>1183.876342773438</v>
       </c>
       <c r="EA4" t="n">
-        <v>3460.361328125</v>
+        <v>1191.823364257812</v>
       </c>
       <c r="EB4" t="n">
-        <v>3453.12939453125</v>
+        <v>1195.856201171875</v>
       </c>
       <c r="EC4" t="n">
-        <v>3427.6767578125</v>
+        <v>1200.691162109375</v>
       </c>
       <c r="ED4" t="n">
-        <v>3458.083251953125</v>
+        <v>1211.156372070312</v>
       </c>
       <c r="EE4" t="n">
-        <v>3424.177978515625</v>
+        <v>1243.476928710938</v>
       </c>
       <c r="EF4" t="n">
-        <v>3434.187744140625</v>
+        <v>1269.274291992188</v>
       </c>
       <c r="EG4" t="n">
-        <v>3427.445068359375</v>
+        <v>1322.56494140625</v>
       </c>
       <c r="EH4" t="n">
-        <v>3430.987060546875</v>
+        <v>1338.684936523438</v>
       </c>
       <c r="EI4" t="n">
-        <v>3437.1630859375</v>
+        <v>1359.225952148438</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3416.159912109375</v>
+        <v>1377.713012695312</v>
       </c>
       <c r="EK4" t="n">
-        <v>3404.609619140625</v>
+        <v>1391.382568359375</v>
       </c>
       <c r="EL4" t="n">
-        <v>3370.37158203125</v>
+        <v>1398.502197265625</v>
       </c>
       <c r="EM4" t="n">
-        <v>3282.19970703125</v>
+        <v>1412.151611328125</v>
       </c>
       <c r="EN4" t="n">
-        <v>3348.95849609375</v>
+        <v>1430.658081054688</v>
       </c>
       <c r="EO4" t="n">
-        <v>3386.286376953125</v>
+        <v>1445.262573242188</v>
       </c>
       <c r="EP4" t="n">
-        <v>3363.149658203125</v>
+        <v>1452.541259765625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3277.9326171875</v>
+        <v>1464.462524414062</v>
       </c>
       <c r="ER4" t="n">
-        <v>3250.869384765625</v>
+        <v>1471.33935546875</v>
       </c>
       <c r="ES4" t="n">
-        <v>3236.665283203125</v>
+        <v>1483.330078125</v>
       </c>
       <c r="ET4" t="n">
-        <v>3227.90625</v>
+        <v>1471.72802734375</v>
       </c>
       <c r="EU4" t="n">
-        <v>3236.12939453125</v>
+        <v>1478.754150390625</v>
       </c>
       <c r="EV4" t="n">
-        <v>3268.43798828125</v>
+        <v>1488.067626953125</v>
       </c>
       <c r="EW4" t="n">
-        <v>3258.552490234375</v>
+        <v>1550.032836914062</v>
       </c>
       <c r="EX4" t="n">
-        <v>3283.11767578125</v>
+        <v>1603.202758789062</v>
       </c>
       <c r="EY4" t="n">
-        <v>3294.16015625</v>
+        <v>1649.6181640625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3289.004150390625</v>
+        <v>1662.56103515625</v>
       </c>
       <c r="FA4" t="n">
-        <v>3262.841064453125</v>
+        <v>1719.750610351562</v>
       </c>
       <c r="FB4" t="n">
-        <v>3228.27490234375</v>
+        <v>1743.385864257812</v>
       </c>
       <c r="FC4" t="n">
-        <v>3338.1279296875</v>
+        <v>1807.108520507812</v>
       </c>
       <c r="FD4" t="n">
-        <v>3259.169677734375</v>
+        <v>1852.6201171875</v>
       </c>
       <c r="FE4" t="n">
-        <v>3243.8369140625</v>
+        <v>1870.291015625</v>
       </c>
       <c r="FF4" t="n">
-        <v>3229.1767578125</v>
+        <v>1896.525756835938</v>
       </c>
       <c r="FG4" t="n">
-        <v>3236.993896484375</v>
+        <v>1966.69140625</v>
       </c>
       <c r="FH4" t="n">
-        <v>3297.388671875</v>
+        <v>1988.517578125</v>
       </c>
       <c r="FI4" t="n">
-        <v>3358.348876953125</v>
+        <v>2061.00537109375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3303.33544921875</v>
+        <v>2109.150634765625</v>
       </c>
       <c r="FK4" t="n">
-        <v>3268.41064453125</v>
+        <v>2156.0810546875</v>
       </c>
       <c r="FL4" t="n">
-        <v>3287.972412109375</v>
+        <v>2157.3798828125</v>
       </c>
       <c r="FM4" t="n">
-        <v>3285.17822265625</v>
+        <v>2170.771484375</v>
       </c>
       <c r="FN4" t="n">
-        <v>3380.11083984375</v>
+        <v>2205.906494140625</v>
       </c>
       <c r="FO4" t="n">
-        <v>3524.511474609375</v>
+        <v>2237.988525390625</v>
       </c>
       <c r="FP4" t="n">
-        <v>3484.82861328125</v>
+        <v>2268.751708984375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3433.736572265625</v>
+        <v>2296.927978515625</v>
       </c>
       <c r="FR4" t="n">
-        <v>3504.900146484375</v>
+        <v>2403.1611328125</v>
       </c>
       <c r="FS4" t="n">
-        <v>3505.19873046875</v>
+        <v>2414.7451171875</v>
       </c>
       <c r="FT4" t="n">
-        <v>3500.713134765625</v>
+        <v>2388.607666015625</v>
       </c>
       <c r="FU4" t="n">
-        <v>3495.25634765625</v>
+        <v>2360.486572265625</v>
       </c>
       <c r="FV4" t="n">
-        <v>3508.51416015625</v>
+        <v>2397.544189453125</v>
       </c>
       <c r="FW4" t="n">
-        <v>3369.50439453125</v>
+        <v>2327.027587890625</v>
       </c>
       <c r="FX4" t="n">
-        <v>3528.612060546875</v>
+        <v>2336.306884765625</v>
       </c>
       <c r="FY4" t="n">
-        <v>3472.34619140625</v>
+        <v>2372.72802734375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3532.396240234375</v>
+        <v>2317.4833984375</v>
       </c>
       <c r="GA4" t="n">
-        <v>3416.65576171875</v>
+        <v>2315.462646484375</v>
       </c>
       <c r="GB4" t="n">
-        <v>3367.616943359375</v>
+        <v>2252.3251953125</v>
       </c>
       <c r="GC4" t="n">
-        <v>3264.10302734375</v>
+        <v>2264.518310546875</v>
       </c>
       <c r="GD4" t="n">
-        <v>3232.953125</v>
+        <v>2296.90185546875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2985.646728515625</v>
+        <v>2271.92919921875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2944.421875</v>
+        <v>2288.28662109375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2893.6240234375</v>
+        <v>2352.310302734375</v>
       </c>
       <c r="GH4" t="n">
-        <v>2885.384033203125</v>
+        <v>2266.69287109375</v>
       </c>
       <c r="GI4" t="n">
-        <v>2875.896240234375</v>
+        <v>2274.93017578125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2849.623291015625</v>
+        <v>2326.809814453125</v>
       </c>
       <c r="GK4" t="n">
-        <v>3010.487060546875</v>
+        <v>2261.1357421875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2952.9912109375</v>
+        <v>2266.214599609375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2948.7998046875</v>
+        <v>2245.810791015625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2918.638916015625</v>
+        <v>2237.89794921875</v>
       </c>
       <c r="GO4" t="n">
-        <v>2900.5908203125</v>
+        <v>2237.8798828125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2821.77099609375</v>
+        <v>2209.36962890625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2805.83251953125</v>
+        <v>2172.5166015625</v>
       </c>
       <c r="GR4" t="n">
-        <v>2729.3525390625</v>
+        <v>2175.302001953125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2659.43603515625</v>
+        <v>2145.835205078125</v>
       </c>
       <c r="GT4" t="n">
-        <v>2768.392822265625</v>
+        <v>2107.216796875</v>
       </c>
       <c r="GU4" t="n">
-        <v>2457.455810546875</v>
+        <v>2122.10498046875</v>
       </c>
       <c r="GV4" t="n">
-        <v>2448.75244140625</v>
+        <v>2065.834228515625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2368.20068359375</v>
+        <v>2047.102172851562</v>
       </c>
       <c r="GX4" t="n">
-        <v>2097.56298828125</v>
+        <v>2053.129638671875</v>
       </c>
       <c r="GY4" t="n">
-        <v>1971.435180664062</v>
+        <v>2050.92724609375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1964.071655273438</v>
+        <v>2058.74072265625</v>
       </c>
       <c r="HA4" t="n">
-        <v>1769.671264648438</v>
+        <v>2060.179443359375</v>
       </c>
       <c r="HB4" t="n">
-        <v>1739.64990234375</v>
+        <v>2062.033935546875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1673.30517578125</v>
+        <v>2035.226928710938</v>
       </c>
       <c r="HD4" t="n">
-        <v>1666.690673828125</v>
+        <v>2075.829345703125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1642.79248046875</v>
+        <v>2040.733154296875</v>
       </c>
       <c r="HF4" t="n">
-        <v>1559.919921875</v>
+        <v>2037.029907226562</v>
       </c>
       <c r="HG4" t="n">
-        <v>1497.920166015625</v>
+        <v>2039.0419921875</v>
       </c>
       <c r="HH4" t="n">
-        <v>1414.2314453125</v>
+        <v>2097.94140625</v>
       </c>
       <c r="HI4" t="n">
-        <v>1327.320068359375</v>
+        <v>2070.6513671875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1262.790405273438</v>
+        <v>2093.02978515625</v>
       </c>
       <c r="HK4" t="n">
-        <v>1166.463012695312</v>
+        <v>2065.7841796875</v>
       </c>
       <c r="HL4" t="n">
-        <v>1078.36328125</v>
+        <v>2119.85693359375</v>
       </c>
       <c r="HM4" t="n">
-        <v>993.63720703125</v>
+        <v>2116.889404296875</v>
       </c>
       <c r="HN4" t="n">
-        <v>877.0960083007812</v>
+        <v>2122.0283203125</v>
       </c>
       <c r="HO4" t="n">
-        <v>807.2531127929688</v>
+        <v>2215.15625</v>
       </c>
       <c r="HP4" t="n">
-        <v>757.395751953125</v>
+        <v>2199.190185546875</v>
       </c>
       <c r="HQ4" t="n">
-        <v>738.8385620117188</v>
+        <v>2199.5888671875</v>
       </c>
       <c r="HR4" t="n">
-        <v>714.3403930664062</v>
+        <v>2105.072021484375</v>
       </c>
       <c r="HS4" t="n">
-        <v>713.4306640625</v>
+        <v>2125.18017578125</v>
       </c>
       <c r="HT4" t="n">
-        <v>652.391845703125</v>
+        <v>2118.455810546875</v>
       </c>
       <c r="HU4" t="n">
-        <v>544.5115966796875</v>
+        <v>2095.714599609375</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2087.727294921875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2081.97314453125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2076.41259765625</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2070.681640625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2054.239013671875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2039.230102539062</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2029.657104492188</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2028.9794921875</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2032.647094726562</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2031.117553710938</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2027.963745117188</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2030.20849609375</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2048.7783203125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2056.932373046875</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2082.4189453125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2107.236328125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2128.169189453125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2066.81640625</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2045.222412109375</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2053.438232421875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2044.7119140625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2043.282470703125</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2028.158935546875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2037.211791992188</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2048.02099609375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2063.558349609375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2069.517578125</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2057.491455078125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2057.05126953125</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2064.84130859375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2060.020263671875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2086.841064453125</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2080.974609375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2045.480834960938</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2045.645263671875</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2075.88623046875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2054.6005859375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2100.05859375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2173.92431640625</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2165.33056640625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2129.871337890625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2189.497802734375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2148.10498046875</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2071.2568359375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2075.744384765625</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2135.792236328125</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2072.691650390625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2117.236328125</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2200.28564453125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2085.977783203125</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2043.437255859375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2055.491943359375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2057.13232421875</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2051.864013671875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2055.7607421875</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2053.74560546875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2056.435302734375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2070.21630859375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2133.31640625</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2108.764404296875</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2234.8330078125</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2198.764404296875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2220.03515625</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2227.93994140625</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2220.76513671875</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2214.4384765625</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2190.97265625</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2201.263916015625</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2243.70654296875</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2262.847900390625</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2287.820068359375</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2331.474365234375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2331.330078125</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2367.458251953125</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2353.25146484375</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2356.5712890625</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2365.11572265625</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2338.56201171875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2302.87939453125</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2282.25439453125</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2257.593017578125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2198.5166015625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2106.862548828125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2226.458984375</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2189.0009765625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2189.3486328125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2118.5419921875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2061.730712890625</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>1815.565185546875</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1789.425048828125</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1753.252075195312</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1729.352661132812</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1682.760375976562</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1645.812622070312</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1614.47412109375</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1575.214111328125</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1523.468872070312</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1473.446411132812</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1414.016479492188</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1364.97412109375</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1326.393432617188</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1278.722900390625</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1222.3037109375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>1170.014526367188</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>1108.183227539062</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>1044.454223632812</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>981.1298217773438</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>917.5341796875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>892.537841796875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>865.9955444335938</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>846.7354736328125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>836.8984375</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>849.3300170898438</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>976.6261596679688</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>1001.7568359375</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>1031.764404296875</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>1035.802001953125</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>1059.4833984375</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>1106.943115234375</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>1078.146850585938</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>1014.869445800781</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>958.0680541992188</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>953.2322998046875</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>972.6934204101562</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>930.267822265625</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>842.150390625</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>738.288330078125</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>689.5869750976562</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>687.6565551757812</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>820.3831787109375</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>842.8119506835938</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>880.459228515625</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>847.9761962890625</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>607.305419921875</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>552.7804565429688</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>555.1365966796875</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>555.381103515625</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>558.5376586914062</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>565.2061157226562</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>568.0120239257812</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>578.177001953125</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>589.8350830078125</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>598.3870239257812</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>611.3109130859375</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>610.2669677734375</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>604.9986572265625</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>595.4693603515625</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>575.8151245117188</v>
       </c>
     </row>
   </sheetData>

--- a/right_wrist_Data_Variable.xlsx
+++ b/right_wrist_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>231.2064208984375</v>
+        <v>200.7770080566406</v>
       </c>
       <c r="B2" t="n">
-        <v>234.4236450195312</v>
+        <v>204.9889984130859</v>
       </c>
       <c r="C2" t="n">
-        <v>239.9483032226562</v>
+        <v>206.7779693603516</v>
       </c>
       <c r="D2" t="n">
-        <v>246.2417297363281</v>
+        <v>209.7644653320312</v>
       </c>
       <c r="E2" t="n">
-        <v>252.7174072265625</v>
+        <v>212.9922180175781</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7370300292969</v>
+        <v>219.1995849609375</v>
       </c>
       <c r="G2" t="n">
-        <v>273.72509765625</v>
+        <v>225.5770568847656</v>
       </c>
       <c r="H2" t="n">
-        <v>275.6748352050781</v>
+        <v>232.0847778320312</v>
       </c>
       <c r="I2" t="n">
-        <v>282.5833740234375</v>
+        <v>236.4996490478516</v>
       </c>
       <c r="J2" t="n">
-        <v>289.9856262207031</v>
+        <v>244.7386474609375</v>
       </c>
       <c r="K2" t="n">
-        <v>297.1584777832031</v>
+        <v>250.09716796875</v>
       </c>
       <c r="L2" t="n">
-        <v>308.7208557128906</v>
+        <v>257.2906799316406</v>
       </c>
       <c r="M2" t="n">
-        <v>323.0054931640625</v>
+        <v>231.6273193359375</v>
       </c>
       <c r="N2" t="n">
-        <v>323.9402465820312</v>
+        <v>235.9716491699219</v>
       </c>
       <c r="O2" t="n">
-        <v>336.5032958984375</v>
+        <v>283.3911743164062</v>
       </c>
       <c r="P2" t="n">
-        <v>341.5866088867188</v>
+        <v>283.8153686523438</v>
       </c>
       <c r="Q2" t="n">
-        <v>344.4449462890625</v>
+        <v>284.1406555175781</v>
       </c>
       <c r="R2" t="n">
-        <v>345.9704284667969</v>
+        <v>284.265869140625</v>
       </c>
       <c r="S2" t="n">
-        <v>345.5191040039062</v>
+        <v>284.2126770019531</v>
       </c>
       <c r="T2" t="n">
-        <v>345.6843872070312</v>
+        <v>284.5833129882812</v>
       </c>
       <c r="U2" t="n">
-        <v>345.4434814453125</v>
+        <v>285.0652160644531</v>
       </c>
       <c r="V2" t="n">
-        <v>344.8263854980469</v>
+        <v>285.5555725097656</v>
       </c>
       <c r="W2" t="n">
-        <v>343.6555480957031</v>
+        <v>285.9126281738281</v>
       </c>
       <c r="X2" t="n">
-        <v>338.7981567382812</v>
+        <v>286.3168640136719</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.5625305175781</v>
+        <v>286.8036193847656</v>
       </c>
       <c r="Z2" t="n">
-        <v>325.6724548339844</v>
+        <v>286.9197387695312</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.5212097167969</v>
+        <v>286.8691711425781</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.8998413085938</v>
+        <v>285.566650390625</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.8871765136719</v>
+        <v>282.8824768066406</v>
       </c>
       <c r="AD2" t="n">
-        <v>311.6535949707031</v>
+        <v>280.6109619140625</v>
       </c>
       <c r="AE2" t="n">
-        <v>310.9038696289062</v>
+        <v>278.3184814453125</v>
       </c>
       <c r="AF2" t="n">
-        <v>311.8377685546875</v>
+        <v>277.2145690917969</v>
       </c>
       <c r="AG2" t="n">
-        <v>312.69091796875</v>
+        <v>276.9103698730469</v>
       </c>
       <c r="AH2" t="n">
-        <v>312.0800476074219</v>
+        <v>275.9154357910156</v>
       </c>
       <c r="AI2" t="n">
-        <v>310.9598083496094</v>
+        <v>275.5285949707031</v>
       </c>
       <c r="AJ2" t="n">
-        <v>309.1113586425781</v>
+        <v>275.358642578125</v>
       </c>
       <c r="AK2" t="n">
-        <v>308.1031188964844</v>
+        <v>274.8608703613281</v>
       </c>
       <c r="AL2" t="n">
-        <v>304.9507141113281</v>
+        <v>274.502197265625</v>
       </c>
       <c r="AM2" t="n">
-        <v>301.7978515625</v>
+        <v>274.1563720703125</v>
       </c>
       <c r="AN2" t="n">
-        <v>299.5079650878906</v>
+        <v>272.2523498535156</v>
       </c>
       <c r="AO2" t="n">
-        <v>295.5437316894531</v>
+        <v>269.1745910644531</v>
       </c>
       <c r="AP2" t="n">
-        <v>293.3826904296875</v>
+        <v>267.044189453125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>290.5791015625</v>
+        <v>266.6918029785156</v>
       </c>
       <c r="AR2" t="n">
-        <v>290.1453552246094</v>
+        <v>266.4139709472656</v>
       </c>
       <c r="AS2" t="n">
-        <v>289.1906127929688</v>
+        <v>266.3336791992188</v>
       </c>
       <c r="AT2" t="n">
-        <v>287.7579956054688</v>
+        <v>266.3974304199219</v>
       </c>
       <c r="AU2" t="n">
-        <v>285.2164916992188</v>
+        <v>266.3351135253906</v>
       </c>
       <c r="AV2" t="n">
-        <v>282.1497497558594</v>
+        <v>266.1944580078125</v>
       </c>
       <c r="AW2" t="n">
-        <v>278.7445068359375</v>
+        <v>265.9998474121094</v>
       </c>
       <c r="AX2" t="n">
-        <v>272.5249938964844</v>
+        <v>265.136962890625</v>
       </c>
       <c r="AY2" t="n">
-        <v>264.3298950195312</v>
+        <v>261.5387878417969</v>
       </c>
       <c r="AZ2" t="n">
-        <v>255.4591369628906</v>
+        <v>252.766845703125</v>
       </c>
       <c r="BA2" t="n">
-        <v>247.7099914550781</v>
+        <v>250.9101715087891</v>
       </c>
       <c r="BB2" t="n">
-        <v>238.5742492675781</v>
+        <v>250.2551879882812</v>
       </c>
       <c r="BC2" t="n">
-        <v>230.728759765625</v>
+        <v>295.897216796875</v>
       </c>
       <c r="BD2" t="n">
-        <v>222.5193634033203</v>
+        <v>295.9451293945312</v>
       </c>
       <c r="BE2" t="n">
-        <v>215.4600219726562</v>
+        <v>296.2880859375</v>
       </c>
       <c r="BF2" t="n">
-        <v>207.4563598632812</v>
+        <v>296.8583374023438</v>
       </c>
       <c r="BG2" t="n">
-        <v>203.4686584472656</v>
+        <v>297.4335021972656</v>
       </c>
       <c r="BH2" t="n">
-        <v>200.4243774414062</v>
+        <v>297.9013977050781</v>
       </c>
       <c r="BI2" t="n">
-        <v>197.8926239013672</v>
+        <v>298.1111450195312</v>
       </c>
       <c r="BJ2" t="n">
-        <v>194.5227203369141</v>
+        <v>298.1227722167969</v>
       </c>
       <c r="BK2" t="n">
-        <v>191.8693542480469</v>
+        <v>297.9713134765625</v>
       </c>
       <c r="BL2" t="n">
-        <v>189.4709777832031</v>
+        <v>297.9778137207031</v>
       </c>
       <c r="BM2" t="n">
-        <v>186.7610321044922</v>
+        <v>297.9844360351562</v>
       </c>
       <c r="BN2" t="n">
-        <v>185.4788513183594</v>
+        <v>297.9365844726562</v>
       </c>
       <c r="BO2" t="n">
-        <v>182.5194396972656</v>
+        <v>297.8921813964844</v>
       </c>
       <c r="BP2" t="n">
-        <v>180.5538635253906</v>
+        <v>297.8856811523438</v>
       </c>
       <c r="BQ2" t="n">
-        <v>177.0680389404297</v>
+        <v>297.8386535644531</v>
       </c>
       <c r="BR2" t="n">
-        <v>172.5785980224609</v>
+        <v>297.7790222167969</v>
       </c>
       <c r="BS2" t="n">
-        <v>168.3834991455078</v>
+        <v>297.734130859375</v>
       </c>
       <c r="BT2" t="n">
-        <v>166.6735687255859</v>
+        <v>297.6923217773438</v>
       </c>
       <c r="BU2" t="n">
-        <v>164.6020355224609</v>
+        <v>297.8453369140625</v>
       </c>
       <c r="BV2" t="n">
-        <v>163.3300476074219</v>
+        <v>298.1386108398438</v>
       </c>
       <c r="BW2" t="n">
-        <v>161.4763641357422</v>
+        <v>258.4639282226562</v>
       </c>
       <c r="BX2" t="n">
-        <v>160.2809448242188</v>
+        <v>252.62744140625</v>
       </c>
       <c r="BY2" t="n">
-        <v>157.7824554443359</v>
+        <v>195.4669342041016</v>
       </c>
       <c r="BZ2" t="n">
-        <v>156.7574462890625</v>
+        <v>195.7013549804688</v>
       </c>
       <c r="CA2" t="n">
-        <v>156.82421875</v>
+        <v>197.8782653808594</v>
       </c>
       <c r="CB2" t="n">
-        <v>157.531982421875</v>
+        <v>204.060546875</v>
       </c>
       <c r="CC2" t="n">
-        <v>159.1236114501953</v>
+        <v>209.7359313964844</v>
       </c>
       <c r="CD2" t="n">
-        <v>162.2528381347656</v>
+        <v>211.3799438476562</v>
       </c>
       <c r="CE2" t="n">
-        <v>172.4478759765625</v>
+        <v>214.9338989257812</v>
       </c>
       <c r="CF2" t="n">
-        <v>176.562744140625</v>
+        <v>217.7494506835938</v>
       </c>
       <c r="CG2" t="n">
-        <v>182.9543762207031</v>
+        <v>218.3600158691406</v>
       </c>
       <c r="CH2" t="n">
-        <v>188.7693786621094</v>
+        <v>217.9925231933594</v>
       </c>
       <c r="CI2" t="n">
-        <v>194.9335632324219</v>
+        <v>218.4620513916016</v>
       </c>
       <c r="CJ2" t="n">
-        <v>199.2616577148438</v>
+        <v>218.2444152832031</v>
       </c>
       <c r="CK2" t="n">
-        <v>202.8630065917969</v>
+        <v>217.7429504394531</v>
       </c>
       <c r="CL2" t="n">
-        <v>206.5442047119141</v>
+        <v>216.4027709960938</v>
       </c>
       <c r="CM2" t="n">
-        <v>210.3079528808594</v>
+        <v>214.8443298339844</v>
       </c>
       <c r="CN2" t="n">
-        <v>214.2357177734375</v>
+        <v>216.7375030517578</v>
       </c>
       <c r="CO2" t="n">
-        <v>214.3865966796875</v>
+        <v>215.8198852539062</v>
       </c>
       <c r="CP2" t="n">
-        <v>214.0209808349609</v>
+        <v>211.9283905029297</v>
       </c>
       <c r="CQ2" t="n">
-        <v>213.5242004394531</v>
+        <v>211.5285339355469</v>
       </c>
       <c r="CR2" t="n">
-        <v>211.4283599853516</v>
+        <v>205.17041015625</v>
       </c>
       <c r="CS2" t="n">
-        <v>197.0592651367188</v>
+        <v>201.20068359375</v>
       </c>
       <c r="CT2" t="n">
-        <v>178.7253570556641</v>
+        <v>201.6236724853516</v>
       </c>
       <c r="CU2" t="n">
-        <v>171.44580078125</v>
+        <v>199.8022613525391</v>
       </c>
       <c r="CV2" t="n">
-        <v>161.8707885742188</v>
+        <v>195.4875183105469</v>
       </c>
       <c r="CW2" t="n">
-        <v>154.9632568359375</v>
+        <v>192.9135437011719</v>
       </c>
       <c r="CX2" t="n">
-        <v>145.4139556884766</v>
+        <v>191.2202606201172</v>
       </c>
       <c r="CY2" t="n">
-        <v>144.4384002685547</v>
+        <v>192.2425537109375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>139.0697937011719</v>
+        <v>193.7941589355469</v>
       </c>
       <c r="DA2" t="n">
-        <v>139.8790740966797</v>
+        <v>204.1810455322266</v>
       </c>
       <c r="DB2" t="n">
-        <v>141.4955902099609</v>
+        <v>221.4385681152344</v>
       </c>
       <c r="DC2" t="n">
-        <v>142.5426788330078</v>
+        <v>227.2499847412109</v>
       </c>
       <c r="DD2" t="n">
-        <v>141.4120635986328</v>
+        <v>228.4105072021484</v>
       </c>
       <c r="DE2" t="n">
-        <v>136.8797302246094</v>
+        <v>297.2184143066406</v>
       </c>
       <c r="DF2" t="n">
-        <v>134.0060272216797</v>
+        <v>297.8206176757812</v>
       </c>
       <c r="DG2" t="n">
-        <v>131.2344970703125</v>
+        <v>298.1876220703125</v>
       </c>
       <c r="DH2" t="n">
-        <v>119.84228515625</v>
+        <v>299.0552368164062</v>
       </c>
       <c r="DI2" t="n">
-        <v>112.9602355957031</v>
+        <v>299.2088317871094</v>
       </c>
       <c r="DJ2" t="n">
-        <v>104.2611999511719</v>
+        <v>299.2495727539062</v>
       </c>
       <c r="DK2" t="n">
-        <v>93.69457244873047</v>
+        <v>257.2774658203125</v>
       </c>
       <c r="DL2" t="n">
-        <v>89.25904846191406</v>
+        <v>262.0614318847656</v>
       </c>
       <c r="DM2" t="n">
-        <v>90.55339050292969</v>
+        <v>261.8987426757812</v>
       </c>
       <c r="DN2" t="n">
-        <v>89.92300415039062</v>
+        <v>276.6165466308594</v>
       </c>
       <c r="DO2" t="n">
-        <v>90.36032867431641</v>
+        <v>286.1674194335938</v>
       </c>
       <c r="DP2" t="n">
-        <v>95.54782104492188</v>
+        <v>288.3953247070312</v>
       </c>
       <c r="DQ2" t="n">
-        <v>118.6139984130859</v>
+        <v>288.5643920898438</v>
       </c>
       <c r="DR2" t="n">
-        <v>143.5552978515625</v>
+        <v>288.8868103027344</v>
       </c>
       <c r="DS2" t="n">
-        <v>163.4947814941406</v>
+        <v>289.60009765625</v>
       </c>
       <c r="DT2" t="n">
-        <v>197.6412658691406</v>
+        <v>290.9523010253906</v>
       </c>
       <c r="DU2" t="n">
-        <v>225.5540771484375</v>
+        <v>290.4574279785156</v>
       </c>
       <c r="DV2" t="n">
-        <v>232.6592254638672</v>
+        <v>288.3859558105469</v>
       </c>
       <c r="DW2" t="n">
-        <v>240.9993591308594</v>
+        <v>286.2745361328125</v>
       </c>
       <c r="DX2" t="n">
-        <v>245.3475341796875</v>
+        <v>283.0161743164062</v>
       </c>
       <c r="DY2" t="n">
-        <v>250.0170593261719</v>
+        <v>276.86181640625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>248.6352844238281</v>
+        <v>266.7290649414062</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.3455200195312</v>
+        <v>263.8295593261719</v>
       </c>
       <c r="EB2" t="n">
-        <v>248.8094177246094</v>
+        <v>259.9051513671875</v>
       </c>
       <c r="EC2" t="n">
-        <v>246.61279296875</v>
+        <v>258.7737121582031</v>
       </c>
       <c r="ED2" t="n">
-        <v>244.1719818115234</v>
+        <v>257.2012329101562</v>
       </c>
       <c r="EE2" t="n">
-        <v>246.6707763671875</v>
+        <v>254.9293365478516</v>
       </c>
       <c r="EF2" t="n">
-        <v>259.7747192382812</v>
+        <v>253.5929260253906</v>
       </c>
       <c r="EG2" t="n">
-        <v>280.0477294921875</v>
+        <v>253.084228515625</v>
       </c>
       <c r="EH2" t="n">
-        <v>290.019287109375</v>
+        <v>253.6512756347656</v>
       </c>
       <c r="EI2" t="n">
-        <v>311.7627563476562</v>
+        <v>256.3880920410156</v>
       </c>
       <c r="EJ2" t="n">
-        <v>319.4158935546875</v>
+        <v>257.1014404296875</v>
       </c>
       <c r="EK2" t="n">
-        <v>344.099365234375</v>
+        <v>251.0548706054688</v>
       </c>
       <c r="EL2" t="n">
-        <v>349.1598205566406</v>
+        <v>252.6240844726562</v>
       </c>
       <c r="EM2" t="n">
-        <v>355.6085815429688</v>
+        <v>254.9184417724609</v>
       </c>
       <c r="EN2" t="n">
-        <v>357.6460571289062</v>
+        <v>254.6745910644531</v>
       </c>
       <c r="EO2" t="n">
-        <v>358.3845825195312</v>
+        <v>261.5463562011719</v>
       </c>
       <c r="EP2" t="n">
-        <v>357.8646240234375</v>
+        <v>267.5352478027344</v>
       </c>
       <c r="EQ2" t="n">
-        <v>356.5562438964844</v>
+        <v>274.2007141113281</v>
       </c>
       <c r="ER2" t="n">
-        <v>357.5872802734375</v>
+        <v>281.0070190429688</v>
       </c>
       <c r="ES2" t="n">
-        <v>364.2256164550781</v>
+        <v>281.0040588378906</v>
       </c>
       <c r="ET2" t="n">
-        <v>370.2459716796875</v>
+        <v>280.9898986816406</v>
       </c>
       <c r="EU2" t="n">
-        <v>373.2293090820312</v>
+        <v>281.1045837402344</v>
       </c>
       <c r="EV2" t="n">
-        <v>374.8875732421875</v>
+        <v>280.8843688964844</v>
       </c>
       <c r="EW2" t="n">
-        <v>385.6211547851562</v>
+        <v>280.2037353515625</v>
       </c>
       <c r="EX2" t="n">
-        <v>395.4876708984375</v>
+        <v>277.2386474609375</v>
       </c>
       <c r="EY2" t="n">
-        <v>398.3097839355469</v>
+        <v>274.6781311035156</v>
       </c>
       <c r="EZ2" t="n">
-        <v>400.8279724121094</v>
+        <v>270.5974426269531</v>
       </c>
       <c r="FA2" t="n">
-        <v>404.7928466796875</v>
+        <v>269.8808898925781</v>
       </c>
       <c r="FB2" t="n">
-        <v>407.5205078125</v>
+        <v>268.771484375</v>
       </c>
       <c r="FC2" t="n">
-        <v>407.7129516601562</v>
+        <v>267.9518737792969</v>
       </c>
       <c r="FD2" t="n">
-        <v>404.2977294921875</v>
+        <v>267.1166076660156</v>
       </c>
       <c r="FE2" t="n">
-        <v>403.2255859375</v>
+        <v>266.9317626953125</v>
       </c>
       <c r="FF2" t="n">
-        <v>400.6582641601562</v>
+        <v>271.1244812011719</v>
       </c>
       <c r="FG2" t="n">
-        <v>395.787841796875</v>
+        <v>273.7680969238281</v>
       </c>
       <c r="FH2" t="n">
-        <v>391.8603515625</v>
+        <v>276.6496276855469</v>
       </c>
       <c r="FI2" t="n">
-        <v>387.9796142578125</v>
+        <v>277.2211303710938</v>
       </c>
       <c r="FJ2" t="n">
-        <v>383.94677734375</v>
+        <v>279.9568481445312</v>
       </c>
       <c r="FK2" t="n">
-        <v>380.951171875</v>
+        <v>280.3200378417969</v>
       </c>
       <c r="FL2" t="n">
-        <v>384.4845275878906</v>
+        <v>280.7002258300781</v>
       </c>
       <c r="FM2" t="n">
-        <v>386.4643859863281</v>
+        <v>284.9039001464844</v>
       </c>
       <c r="FN2" t="n">
-        <v>388.2784423828125</v>
+        <v>286.2556762695312</v>
       </c>
       <c r="FO2" t="n">
-        <v>388.4619750976562</v>
+        <v>286.3990173339844</v>
       </c>
       <c r="FP2" t="n">
-        <v>387.2353820800781</v>
+        <v>284.2326049804688</v>
       </c>
       <c r="FQ2" t="n">
-        <v>386.5310363769531</v>
+        <v>281.2486877441406</v>
       </c>
       <c r="FR2" t="n">
-        <v>379.4349975585938</v>
+        <v>271.0456848144531</v>
       </c>
       <c r="FS2" t="n">
-        <v>379.5101928710938</v>
+        <v>267.6538696289062</v>
       </c>
       <c r="FT2" t="n">
-        <v>377.2331237792969</v>
+        <v>254.9948120117188</v>
       </c>
       <c r="FU2" t="n">
-        <v>375.2686157226562</v>
+        <v>252.0001983642578</v>
       </c>
       <c r="FV2" t="n">
-        <v>368.78125</v>
+        <v>236.0196228027344</v>
       </c>
       <c r="FW2" t="n">
-        <v>363.3715515136719</v>
+        <v>171.7815856933594</v>
       </c>
       <c r="FX2" t="n">
-        <v>361.6354370117188</v>
+        <v>158.9384460449219</v>
       </c>
       <c r="FY2" t="n">
-        <v>359.4936828613281</v>
+        <v>139.0233612060547</v>
       </c>
       <c r="FZ2" t="n">
-        <v>355.0503845214844</v>
+        <v>132.6469116210938</v>
       </c>
       <c r="GA2" t="n">
-        <v>353.317626953125</v>
+        <v>213.7869567871094</v>
       </c>
       <c r="GB2" t="n">
-        <v>353.2105102539062</v>
+        <v>205.782470703125</v>
       </c>
       <c r="GC2" t="n">
-        <v>351.4048461914062</v>
+        <v>204.0946044921875</v>
       </c>
       <c r="GD2" t="n">
-        <v>354.7539978027344</v>
+        <v>102.7325744628906</v>
       </c>
       <c r="GE2" t="n">
-        <v>348.5677795410156</v>
+        <v>100.1159820556641</v>
       </c>
       <c r="GF2" t="n">
-        <v>347.9095458984375</v>
+        <v>100.4864349365234</v>
       </c>
       <c r="GG2" t="n">
-        <v>345.8412170410156</v>
+        <v>100.4389495849609</v>
       </c>
       <c r="GH2" t="n">
-        <v>350.7789306640625</v>
+        <v>96.81974792480469</v>
       </c>
       <c r="GI2" t="n">
-        <v>350.2633361816406</v>
+        <v>92.68253326416016</v>
       </c>
       <c r="GJ2" t="n">
-        <v>343.9208679199219</v>
+        <v>92.94503784179688</v>
       </c>
       <c r="GK2" t="n">
-        <v>342.5560302734375</v>
+        <v>89.10744476318359</v>
       </c>
       <c r="GL2" t="n">
-        <v>339.0908203125</v>
+        <v>91.44871520996094</v>
       </c>
       <c r="GM2" t="n">
-        <v>334.9841918945312</v>
+        <v>99.71810150146484</v>
       </c>
       <c r="GN2" t="n">
-        <v>333.8718872070312</v>
+        <v>106.2141265869141</v>
       </c>
       <c r="GO2" t="n">
-        <v>328.8092346191406</v>
+        <v>122.5087585449219</v>
       </c>
       <c r="GP2" t="n">
-        <v>322.8677673339844</v>
+        <v>126.9061431884766</v>
       </c>
       <c r="GQ2" t="n">
-        <v>319.7586975097656</v>
+        <v>129.2550506591797</v>
       </c>
       <c r="GR2" t="n">
-        <v>316.3508605957031</v>
+        <v>129.1590270996094</v>
       </c>
       <c r="GS2" t="n">
-        <v>316.3264770507812</v>
+        <v>127.7918319702148</v>
       </c>
       <c r="GT2" t="n">
-        <v>316.8561096191406</v>
+        <v>126.3550109863281</v>
       </c>
       <c r="GU2" t="n">
-        <v>312.1302490234375</v>
+        <v>122.0821075439453</v>
       </c>
       <c r="GV2" t="n">
-        <v>310.7901306152344</v>
+        <v>111.5942535400391</v>
       </c>
       <c r="GW2" t="n">
-        <v>306.9154663085938</v>
+        <v>93.53531646728516</v>
       </c>
       <c r="GX2" t="n">
-        <v>309.2760314941406</v>
+        <v>74.2720947265625</v>
       </c>
       <c r="GY2" t="n">
-        <v>306.0547180175781</v>
+        <v>58.62523651123047</v>
       </c>
       <c r="GZ2" t="n">
-        <v>305.7450256347656</v>
+        <v>30.80766487121582</v>
       </c>
       <c r="HA2" t="n">
-        <v>306.2601318359375</v>
+        <v>-2.869184494018555</v>
       </c>
       <c r="HB2" t="n">
-        <v>309.1187133789062</v>
+        <v>-1.412856340408325</v>
       </c>
       <c r="HC2" t="n">
-        <v>309.0542602539062</v>
+        <v>2.804721593856812</v>
       </c>
       <c r="HD2" t="n">
-        <v>305.2335205078125</v>
+        <v>4.780216693878174</v>
       </c>
       <c r="HE2" t="n">
-        <v>307.9609375</v>
+        <v>-5.977076530456543</v>
       </c>
       <c r="HF2" t="n">
-        <v>308.4927062988281</v>
+        <v>41.48720550537109</v>
       </c>
       <c r="HG2" t="n">
-        <v>304.57958984375</v>
+        <v>47.72255706787109</v>
       </c>
       <c r="HH2" t="n">
-        <v>303.1466064453125</v>
+        <v>43.201171875</v>
       </c>
       <c r="HI2" t="n">
-        <v>304.2379150390625</v>
+        <v>33.91808700561523</v>
       </c>
       <c r="HJ2" t="n">
-        <v>310.327392578125</v>
+        <v>26.55857467651367</v>
       </c>
       <c r="HK2" t="n">
-        <v>309.2682495117188</v>
+        <v>29.14184951782227</v>
       </c>
       <c r="HL2" t="n">
-        <v>319.1771545410156</v>
+        <v>30.62124061584473</v>
       </c>
       <c r="HM2" t="n">
-        <v>319.9150085449219</v>
+        <v>30.79107666015625</v>
       </c>
       <c r="HN2" t="n">
-        <v>319.5206909179688</v>
+        <v>47.89025115966797</v>
       </c>
       <c r="HO2" t="n">
-        <v>332.0111389160156</v>
+        <v>47.46968078613281</v>
       </c>
       <c r="HP2" t="n">
-        <v>345.2266845703125</v>
+        <v>48.3739013671875</v>
       </c>
       <c r="HQ2" t="n">
-        <v>350.5217895507812</v>
+        <v>50.96997833251953</v>
       </c>
       <c r="HR2" t="n">
-        <v>369.5079956054688</v>
+        <v>32.20676422119141</v>
       </c>
       <c r="HS2" t="n">
-        <v>370.3121948242188</v>
+        <v>22.95150375366211</v>
       </c>
       <c r="HT2" t="n">
-        <v>373.85595703125</v>
+        <v>35.44614028930664</v>
       </c>
       <c r="HU2" t="n">
-        <v>377.3867797851562</v>
+        <v>36.73942947387695</v>
       </c>
       <c r="HV2" t="n">
-        <v>380.8070678710938</v>
+        <v>60.82109451293945</v>
       </c>
       <c r="HW2" t="n">
-        <v>380.7101745605469</v>
+        <v>93.69017791748047</v>
       </c>
       <c r="HX2" t="n">
-        <v>380.5948181152344</v>
+        <v>117.4550170898438</v>
       </c>
       <c r="HY2" t="n">
-        <v>380.5972290039062</v>
+        <v>145.9535217285156</v>
       </c>
       <c r="HZ2" t="n">
-        <v>383.598388671875</v>
+        <v>167.8174133300781</v>
       </c>
       <c r="IA2" t="n">
-        <v>386.2807006835938</v>
+        <v>191.4479064941406</v>
       </c>
       <c r="IB2" t="n">
-        <v>386.3847351074219</v>
+        <v>204.7439270019531</v>
       </c>
       <c r="IC2" t="n">
-        <v>386.6988525390625</v>
+        <v>217.0005493164062</v>
       </c>
       <c r="ID2" t="n">
-        <v>386.0439453125</v>
+        <v>227.9146423339844</v>
       </c>
       <c r="IE2" t="n">
-        <v>384.76953125</v>
+        <v>232.6811981201172</v>
       </c>
       <c r="IF2" t="n">
-        <v>383.0158081054688</v>
+        <v>238.4900054931641</v>
       </c>
       <c r="IG2" t="n">
-        <v>377.0282592773438</v>
+        <v>241.1458129882812</v>
       </c>
       <c r="IH2" t="n">
-        <v>372.0904541015625</v>
+        <v>240.2540435791016</v>
       </c>
       <c r="II2" t="n">
-        <v>365.8661499023438</v>
+        <v>238.4690704345703</v>
       </c>
       <c r="IJ2" t="n">
-        <v>357.0681457519531</v>
+        <v>232.8492431640625</v>
       </c>
       <c r="IK2" t="n">
-        <v>341.29248046875</v>
+        <v>223.9734039306641</v>
       </c>
       <c r="IL2" t="n">
-        <v>336.3298950195312</v>
+        <v>212.2338562011719</v>
       </c>
       <c r="IM2" t="n">
-        <v>328.8797607421875</v>
+        <v>203.0455932617188</v>
       </c>
       <c r="IN2" t="n">
-        <v>315.3429260253906</v>
+        <v>186.5268249511719</v>
       </c>
       <c r="IO2" t="n">
-        <v>316.6455688476562</v>
+        <v>186.5159912109375</v>
       </c>
       <c r="IP2" t="n">
-        <v>312.2095336914062</v>
+        <v>269.7264709472656</v>
       </c>
       <c r="IQ2" t="n">
-        <v>311.7160949707031</v>
+        <v>125.1535949707031</v>
       </c>
       <c r="IR2" t="n">
-        <v>309.7965087890625</v>
+        <v>176.1654815673828</v>
       </c>
       <c r="IS2" t="n">
-        <v>312.0262451171875</v>
+        <v>179.2140197753906</v>
       </c>
       <c r="IT2" t="n">
-        <v>310.8106689453125</v>
+        <v>184.6705780029297</v>
       </c>
       <c r="IU2" t="n">
-        <v>310.2955932617188</v>
+        <v>180.4146728515625</v>
       </c>
       <c r="IV2" t="n">
-        <v>311.2395935058594</v>
+        <v>179.9669036865234</v>
       </c>
       <c r="IW2" t="n">
-        <v>308.7880249023438</v>
+        <v>192.8321685791016</v>
       </c>
       <c r="IX2" t="n">
-        <v>308.7669372558594</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>309.0445861816406</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>306.9361877441406</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>311.200439453125</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>309.9446716308594</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>312.4794311523438</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>313.0711364746094</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>319.798095703125</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>317.1159057617188</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>318.278076171875</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>319.5426635742188</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>331.238037109375</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>338.3156127929688</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>338.9970397949219</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>348.1796569824219</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>360.3885192871094</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>361.0106811523438</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>356.0433654785156</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>364.7542724609375</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>360.6588745117188</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>354.7247924804688</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>365.4501342773438</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>373.4515686035156</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>372.5052490234375</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>372.4685363769531</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>372.7745971679688</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>372.5140686035156</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>372.5132751464844</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>372.3761596679688</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>371.8338623046875</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>360.0274658203125</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>347.563720703125</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>335.6037902832031</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>330.0202026367188</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>329.08056640625</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>328.2037048339844</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>329.7792358398438</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>329.9254760742188</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>329.9844665527344</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>329.3871459960938</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>320.8238220214844</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>316.396728515625</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>308.0251770019531</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>299.6632690429688</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>311.805419921875</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>302.9776916503906</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>315.4007873535156</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>322.7271728515625</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>322.0100708007812</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>322.3588562011719</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>316.01708984375</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>327.7126770019531</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>314.1607971191406</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>316.8223571777344</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>322.1950073242188</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>340.2142333984375</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>344.3329467773438</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>350.4630126953125</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>367.32568359375</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>372.5848388671875</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>373.4884033203125</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>372.0971984863281</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>371.0173950195312</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>368.5809936523438</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>370.1257934570312</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>375.964599609375</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>379.0787048339844</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>381.3636779785156</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>383.7526245117188</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>385.5794677734375</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>387.546630859375</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>375.6385803222656</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>370.9545288085938</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>369.3922424316406</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>374.0952758789062</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>367.6739807128906</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>375.1466369628906</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>385.8867797851562</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>371.0528259277344</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>393.6398620605469</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>383.016845703125</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>357.09375</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>335.7324829101562</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>317.5265808105469</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>294.6690979003906</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>225.9228210449219</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>227.8044281005859</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>247.770263671875</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>261.8422546386719</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>261.7135620117188</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>255.7091369628906</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>260.8016967773438</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>257.0201416015625</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>261.2301330566406</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>270.3827819824219</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>275.7065734863281</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>271.0352172851562</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>262.3990783691406</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>224.219482421875</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>214.6939392089844</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>221.4814758300781</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>266.0013732910156</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>255.4092254638672</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>223.7561340332031</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>203.9138793945312</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>179.0464630126953</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>149.2962188720703</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>144.9650268554688</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>146.7162322998047</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>164.92333984375</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>183.3221740722656</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>184.8052978515625</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>185.7177429199219</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>199.7094421386719</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>219.7510070800781</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>221.3728485107422</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>190.4450073242188</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>185.5171203613281</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>178.9656219482422</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>173.4440307617188</v>
+        <v>233.4339904785156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>317.1705627441406</v>
+        <v>442.7184448242188</v>
       </c>
       <c r="B3" t="n">
-        <v>331.1086120605469</v>
+        <v>435.599853515625</v>
       </c>
       <c r="C3" t="n">
-        <v>340.3041381835938</v>
+        <v>432.4436645507812</v>
       </c>
       <c r="D3" t="n">
-        <v>349.2257385253906</v>
+        <v>426.9423828125</v>
       </c>
       <c r="E3" t="n">
-        <v>362.7876586914062</v>
+        <v>424.3609008789062</v>
       </c>
       <c r="F3" t="n">
-        <v>373.3370971679688</v>
+        <v>422.0285339355469</v>
       </c>
       <c r="G3" t="n">
-        <v>381.2748413085938</v>
+        <v>419.6718444824219</v>
       </c>
       <c r="H3" t="n">
-        <v>389.5032653808594</v>
+        <v>414.5633850097656</v>
       </c>
       <c r="I3" t="n">
-        <v>395.8381652832031</v>
+        <v>411.6095581054688</v>
       </c>
       <c r="J3" t="n">
-        <v>399.6693115234375</v>
+        <v>410.9527587890625</v>
       </c>
       <c r="K3" t="n">
-        <v>397.4643249511719</v>
+        <v>408.0337219238281</v>
       </c>
       <c r="L3" t="n">
-        <v>390.2279357910156</v>
+        <v>408.1080627441406</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8975524902344</v>
+        <v>407.8590698242188</v>
       </c>
       <c r="N3" t="n">
-        <v>359.0283203125</v>
+        <v>407.1965637207031</v>
       </c>
       <c r="O3" t="n">
-        <v>343.7876892089844</v>
+        <v>394.88525390625</v>
       </c>
       <c r="P3" t="n">
-        <v>337.2005615234375</v>
+        <v>392.4141845703125</v>
       </c>
       <c r="Q3" t="n">
-        <v>333.765869140625</v>
+        <v>391.7853393554688</v>
       </c>
       <c r="R3" t="n">
-        <v>329.3533020019531</v>
+        <v>393.9346313476562</v>
       </c>
       <c r="S3" t="n">
-        <v>328.5696411132812</v>
+        <v>393.7869567871094</v>
       </c>
       <c r="T3" t="n">
-        <v>328.8101501464844</v>
+        <v>394.56787109375</v>
       </c>
       <c r="U3" t="n">
-        <v>325.7695617675781</v>
+        <v>394.4046936035156</v>
       </c>
       <c r="V3" t="n">
-        <v>327.7913208007812</v>
+        <v>393.1116027832031</v>
       </c>
       <c r="W3" t="n">
-        <v>330.7396850585938</v>
+        <v>392.4048767089844</v>
       </c>
       <c r="X3" t="n">
-        <v>333.8225708007812</v>
+        <v>391.2342834472656</v>
       </c>
       <c r="Y3" t="n">
-        <v>343.7856140136719</v>
+        <v>390.4430236816406</v>
       </c>
       <c r="Z3" t="n">
-        <v>350.9838562011719</v>
+        <v>389.4075012207031</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.7069702148438</v>
+        <v>389.5011901855469</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.8319396972656</v>
+        <v>388.1867065429688</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.4084777832031</v>
+        <v>386.2081604003906</v>
       </c>
       <c r="AD3" t="n">
-        <v>368.8305358886719</v>
+        <v>384.3245849609375</v>
       </c>
       <c r="AE3" t="n">
-        <v>370.3750305175781</v>
+        <v>385.2369079589844</v>
       </c>
       <c r="AF3" t="n">
-        <v>368.9378662109375</v>
+        <v>386.9239196777344</v>
       </c>
       <c r="AG3" t="n">
-        <v>368.2992248535156</v>
+        <v>387.9988708496094</v>
       </c>
       <c r="AH3" t="n">
-        <v>367.8385314941406</v>
+        <v>388.5469360351562</v>
       </c>
       <c r="AI3" t="n">
-        <v>363.8450317382812</v>
+        <v>389.1073303222656</v>
       </c>
       <c r="AJ3" t="n">
-        <v>360.3372497558594</v>
+        <v>387.8994140625</v>
       </c>
       <c r="AK3" t="n">
-        <v>359.5209350585938</v>
+        <v>387.2397766113281</v>
       </c>
       <c r="AL3" t="n">
-        <v>360.2958068847656</v>
+        <v>388.5067443847656</v>
       </c>
       <c r="AM3" t="n">
-        <v>359.8900756835938</v>
+        <v>389.77294921875</v>
       </c>
       <c r="AN3" t="n">
-        <v>362.0321960449219</v>
+        <v>390.2507934570312</v>
       </c>
       <c r="AO3" t="n">
-        <v>363.6934509277344</v>
+        <v>390.3224182128906</v>
       </c>
       <c r="AP3" t="n">
-        <v>366.0790405273438</v>
+        <v>390.5955505371094</v>
       </c>
       <c r="AQ3" t="n">
-        <v>367.0402221679688</v>
+        <v>390.0628356933594</v>
       </c>
       <c r="AR3" t="n">
-        <v>367.32861328125</v>
+        <v>389.1924133300781</v>
       </c>
       <c r="AS3" t="n">
-        <v>367.8237609863281</v>
+        <v>388.3308410644531</v>
       </c>
       <c r="AT3" t="n">
-        <v>368.5180358886719</v>
+        <v>388.10546875</v>
       </c>
       <c r="AU3" t="n">
-        <v>369.5140075683594</v>
+        <v>387.4986572265625</v>
       </c>
       <c r="AV3" t="n">
-        <v>369.3043212890625</v>
+        <v>386.9557189941406</v>
       </c>
       <c r="AW3" t="n">
-        <v>368.2479858398438</v>
+        <v>386.2630615234375</v>
       </c>
       <c r="AX3" t="n">
-        <v>365.8045349121094</v>
+        <v>386.5895690917969</v>
       </c>
       <c r="AY3" t="n">
-        <v>362.8440856933594</v>
+        <v>385.0632019042969</v>
       </c>
       <c r="AZ3" t="n">
-        <v>359.2064819335938</v>
+        <v>380.2425842285156</v>
       </c>
       <c r="BA3" t="n">
-        <v>355.8372192382812</v>
+        <v>376.8442077636719</v>
       </c>
       <c r="BB3" t="n">
-        <v>351.4974365234375</v>
+        <v>374.198974609375</v>
       </c>
       <c r="BC3" t="n">
-        <v>346.583251953125</v>
+        <v>386.8816223144531</v>
       </c>
       <c r="BD3" t="n">
-        <v>341.71435546875</v>
+        <v>385.8745727539062</v>
       </c>
       <c r="BE3" t="n">
-        <v>337.7467041015625</v>
+        <v>384.8221130371094</v>
       </c>
       <c r="BF3" t="n">
-        <v>332.6908569335938</v>
+        <v>383.7448120117188</v>
       </c>
       <c r="BG3" t="n">
-        <v>328.9757080078125</v>
+        <v>382.6361694335938</v>
       </c>
       <c r="BH3" t="n">
-        <v>326.3945922851562</v>
+        <v>381.9279174804688</v>
       </c>
       <c r="BI3" t="n">
-        <v>324.568115234375</v>
+        <v>381.3774719238281</v>
       </c>
       <c r="BJ3" t="n">
-        <v>324.0425109863281</v>
+        <v>380.7976989746094</v>
       </c>
       <c r="BK3" t="n">
-        <v>324.5045166015625</v>
+        <v>380.220947265625</v>
       </c>
       <c r="BL3" t="n">
-        <v>326.5577392578125</v>
+        <v>380.2306823730469</v>
       </c>
       <c r="BM3" t="n">
-        <v>329.19677734375</v>
+        <v>380.28515625</v>
       </c>
       <c r="BN3" t="n">
-        <v>330.9122619628906</v>
+        <v>380.3503723144531</v>
       </c>
       <c r="BO3" t="n">
-        <v>334.1997985839844</v>
+        <v>380.5128173828125</v>
       </c>
       <c r="BP3" t="n">
-        <v>336.0332946777344</v>
+        <v>380.6086730957031</v>
       </c>
       <c r="BQ3" t="n">
-        <v>336.7711486816406</v>
+        <v>380.7303466796875</v>
       </c>
       <c r="BR3" t="n">
-        <v>338.1339721679688</v>
+        <v>380.8694763183594</v>
       </c>
       <c r="BS3" t="n">
-        <v>338.8836975097656</v>
+        <v>381.0164184570312</v>
       </c>
       <c r="BT3" t="n">
-        <v>339.6610412597656</v>
+        <v>381.1460266113281</v>
       </c>
       <c r="BU3" t="n">
-        <v>340.4666748046875</v>
+        <v>381.5020446777344</v>
       </c>
       <c r="BV3" t="n">
-        <v>340.6905822753906</v>
+        <v>381.9396057128906</v>
       </c>
       <c r="BW3" t="n">
-        <v>340.7893371582031</v>
+        <v>368.2774658203125</v>
       </c>
       <c r="BX3" t="n">
-        <v>340.9153442382812</v>
+        <v>361.2057189941406</v>
       </c>
       <c r="BY3" t="n">
-        <v>340.1452331542969</v>
+        <v>288.0917053222656</v>
       </c>
       <c r="BZ3" t="n">
-        <v>339.9822082519531</v>
+        <v>275.0859069824219</v>
       </c>
       <c r="CA3" t="n">
-        <v>339.9438171386719</v>
+        <v>263.1500244140625</v>
       </c>
       <c r="CB3" t="n">
-        <v>339.9822998046875</v>
+        <v>257.2716369628906</v>
       </c>
       <c r="CC3" t="n">
-        <v>339.7148742675781</v>
+        <v>248.0629272460938</v>
       </c>
       <c r="CD3" t="n">
-        <v>338.2918090820312</v>
+        <v>242.2683563232422</v>
       </c>
       <c r="CE3" t="n">
-        <v>339.9098815917969</v>
+        <v>235.2542419433594</v>
       </c>
       <c r="CF3" t="n">
-        <v>340.2962341308594</v>
+        <v>231.6565399169922</v>
       </c>
       <c r="CG3" t="n">
-        <v>341.6879577636719</v>
+        <v>228.5526580810547</v>
       </c>
       <c r="CH3" t="n">
-        <v>343.2761840820312</v>
+        <v>225.9226837158203</v>
       </c>
       <c r="CI3" t="n">
-        <v>343.1947021484375</v>
+        <v>225.5732727050781</v>
       </c>
       <c r="CJ3" t="n">
-        <v>344.8644409179688</v>
+        <v>225.6856231689453</v>
       </c>
       <c r="CK3" t="n">
-        <v>344.936279296875</v>
+        <v>226.3637847900391</v>
       </c>
       <c r="CL3" t="n">
-        <v>344.8002014160156</v>
+        <v>227.8104248046875</v>
       </c>
       <c r="CM3" t="n">
-        <v>345.1114807128906</v>
+        <v>230.6758728027344</v>
       </c>
       <c r="CN3" t="n">
-        <v>340.729248046875</v>
+        <v>232.7492828369141</v>
       </c>
       <c r="CO3" t="n">
-        <v>338.4087829589844</v>
+        <v>235.3483123779297</v>
       </c>
       <c r="CP3" t="n">
-        <v>334.8805847167969</v>
+        <v>237.4230651855469</v>
       </c>
       <c r="CQ3" t="n">
-        <v>331.0089416503906</v>
+        <v>239.68603515625</v>
       </c>
       <c r="CR3" t="n">
-        <v>326.3197631835938</v>
+        <v>244.7524108886719</v>
       </c>
       <c r="CS3" t="n">
-        <v>309.4394226074219</v>
+        <v>248.3879699707031</v>
       </c>
       <c r="CT3" t="n">
-        <v>291.2886962890625</v>
+        <v>250.6641540527344</v>
       </c>
       <c r="CU3" t="n">
-        <v>280.0021057128906</v>
+        <v>256.5310363769531</v>
       </c>
       <c r="CV3" t="n">
-        <v>268.1944885253906</v>
+        <v>264.5537414550781</v>
       </c>
       <c r="CW3" t="n">
-        <v>257.3606567382812</v>
+        <v>270.0393676757812</v>
       </c>
       <c r="CX3" t="n">
-        <v>226.5042419433594</v>
+        <v>278.7743530273438</v>
       </c>
       <c r="CY3" t="n">
-        <v>210.963623046875</v>
+        <v>297.8621826171875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>184.4645233154297</v>
+        <v>303.91796875</v>
       </c>
       <c r="DA3" t="n">
-        <v>175.9220581054688</v>
+        <v>298.3255004882812</v>
       </c>
       <c r="DB3" t="n">
-        <v>168.3379821777344</v>
+        <v>288.8215637207031</v>
       </c>
       <c r="DC3" t="n">
-        <v>155.8884735107422</v>
+        <v>286.8185424804688</v>
       </c>
       <c r="DD3" t="n">
-        <v>146.8516082763672</v>
+        <v>288.1910400390625</v>
       </c>
       <c r="DE3" t="n">
-        <v>138.1544342041016</v>
+        <v>381.9068603515625</v>
       </c>
       <c r="DF3" t="n">
-        <v>133.2429351806641</v>
+        <v>383.1030883789062</v>
       </c>
       <c r="DG3" t="n">
-        <v>132.6795196533203</v>
+        <v>383.4979858398438</v>
       </c>
       <c r="DH3" t="n">
-        <v>136.673828125</v>
+        <v>384.609130859375</v>
       </c>
       <c r="DI3" t="n">
-        <v>143.9882507324219</v>
+        <v>384.7069091796875</v>
       </c>
       <c r="DJ3" t="n">
-        <v>164.0163726806641</v>
+        <v>385.2594604492188</v>
       </c>
       <c r="DK3" t="n">
-        <v>182.8591613769531</v>
+        <v>382.6669006347656</v>
       </c>
       <c r="DL3" t="n">
-        <v>192.7447814941406</v>
+        <v>385.0727233886719</v>
       </c>
       <c r="DM3" t="n">
-        <v>205.6257476806641</v>
+        <v>384.1532287597656</v>
       </c>
       <c r="DN3" t="n">
-        <v>221.7633819580078</v>
+        <v>387.8144226074219</v>
       </c>
       <c r="DO3" t="n">
-        <v>242.5613861083984</v>
+        <v>386.7578125</v>
       </c>
       <c r="DP3" t="n">
-        <v>271.5427856445312</v>
+        <v>387.8674621582031</v>
       </c>
       <c r="DQ3" t="n">
-        <v>310.2205810546875</v>
+        <v>387.330322265625</v>
       </c>
       <c r="DR3" t="n">
-        <v>337.4261779785156</v>
+        <v>386.7549743652344</v>
       </c>
       <c r="DS3" t="n">
-        <v>349.2120971679688</v>
+        <v>385.0236206054688</v>
       </c>
       <c r="DT3" t="n">
-        <v>365.8323364257812</v>
+        <v>382.0966796875</v>
       </c>
       <c r="DU3" t="n">
-        <v>372.0247497558594</v>
+        <v>382.31689453125</v>
       </c>
       <c r="DV3" t="n">
-        <v>374.5607604980469</v>
+        <v>382.6964721679688</v>
       </c>
       <c r="DW3" t="n">
-        <v>375.8436584472656</v>
+        <v>382.8157653808594</v>
       </c>
       <c r="DX3" t="n">
-        <v>373.9256896972656</v>
+        <v>382.8939208984375</v>
       </c>
       <c r="DY3" t="n">
-        <v>372.840576171875</v>
+        <v>382.2210388183594</v>
       </c>
       <c r="DZ3" t="n">
-        <v>367.8432922363281</v>
+        <v>383.9024963378906</v>
       </c>
       <c r="EA3" t="n">
-        <v>365.6152648925781</v>
+        <v>386.9357604980469</v>
       </c>
       <c r="EB3" t="n">
-        <v>360.8831787109375</v>
+        <v>387.2598876953125</v>
       </c>
       <c r="EC3" t="n">
-        <v>359.9776306152344</v>
+        <v>386.6805114746094</v>
       </c>
       <c r="ED3" t="n">
-        <v>360.1719970703125</v>
+        <v>384.2944030761719</v>
       </c>
       <c r="EE3" t="n">
-        <v>357.3787536621094</v>
+        <v>381.6436462402344</v>
       </c>
       <c r="EF3" t="n">
-        <v>356.2922668457031</v>
+        <v>378.7845458984375</v>
       </c>
       <c r="EG3" t="n">
-        <v>355.5836791992188</v>
+        <v>378.8269653320312</v>
       </c>
       <c r="EH3" t="n">
-        <v>357.228271484375</v>
+        <v>379.9739379882812</v>
       </c>
       <c r="EI3" t="n">
-        <v>363.2445373535156</v>
+        <v>381.0314636230469</v>
       </c>
       <c r="EJ3" t="n">
-        <v>361.1072082519531</v>
+        <v>381.8987426757812</v>
       </c>
       <c r="EK3" t="n">
-        <v>358.5630493164062</v>
+        <v>382.4397583007812</v>
       </c>
       <c r="EL3" t="n">
-        <v>354.9464721679688</v>
+        <v>381.7924499511719</v>
       </c>
       <c r="EM3" t="n">
-        <v>353.032470703125</v>
+        <v>382.0485534667969</v>
       </c>
       <c r="EN3" t="n">
-        <v>353.1543579101562</v>
+        <v>380.464599609375</v>
       </c>
       <c r="EO3" t="n">
-        <v>348.2685852050781</v>
+        <v>383.9660949707031</v>
       </c>
       <c r="EP3" t="n">
-        <v>348.0685119628906</v>
+        <v>385.9720458984375</v>
       </c>
       <c r="EQ3" t="n">
-        <v>350.7242431640625</v>
+        <v>387.5943298339844</v>
       </c>
       <c r="ER3" t="n">
-        <v>350.8027954101562</v>
+        <v>390.2330322265625</v>
       </c>
       <c r="ES3" t="n">
-        <v>348.4893188476562</v>
+        <v>391.1161499023438</v>
       </c>
       <c r="ET3" t="n">
-        <v>354.947509765625</v>
+        <v>390.8555297851562</v>
       </c>
       <c r="EU3" t="n">
-        <v>357.6915893554688</v>
+        <v>390.9329833984375</v>
       </c>
       <c r="EV3" t="n">
-        <v>354.4272155761719</v>
+        <v>388.8380126953125</v>
       </c>
       <c r="EW3" t="n">
-        <v>356.999267578125</v>
+        <v>389.75390625</v>
       </c>
       <c r="EX3" t="n">
-        <v>356.0033264160156</v>
+        <v>390.4798583984375</v>
       </c>
       <c r="EY3" t="n">
-        <v>351.761474609375</v>
+        <v>390.3154907226562</v>
       </c>
       <c r="EZ3" t="n">
-        <v>350.999755859375</v>
+        <v>390.285400390625</v>
       </c>
       <c r="FA3" t="n">
-        <v>355.6296997070312</v>
+        <v>391.0956420898438</v>
       </c>
       <c r="FB3" t="n">
-        <v>357.8553771972656</v>
+        <v>390.7699890136719</v>
       </c>
       <c r="FC3" t="n">
-        <v>352.7776794433594</v>
+        <v>392.9572448730469</v>
       </c>
       <c r="FD3" t="n">
-        <v>357.2607421875</v>
+        <v>394.1703491210938</v>
       </c>
       <c r="FE3" t="n">
-        <v>356.648681640625</v>
+        <v>395.6598815917969</v>
       </c>
       <c r="FF3" t="n">
-        <v>358.29541015625</v>
+        <v>395.8560485839844</v>
       </c>
       <c r="FG3" t="n">
-        <v>358.4330749511719</v>
+        <v>394.826171875</v>
       </c>
       <c r="FH3" t="n">
-        <v>357.1286315917969</v>
+        <v>393.9202575683594</v>
       </c>
       <c r="FI3" t="n">
-        <v>356.5980529785156</v>
+        <v>395.2854919433594</v>
       </c>
       <c r="FJ3" t="n">
-        <v>357.233642578125</v>
+        <v>393.4806213378906</v>
       </c>
       <c r="FK3" t="n">
-        <v>359.4924621582031</v>
+        <v>388.9423217773438</v>
       </c>
       <c r="FL3" t="n">
-        <v>358.2967529296875</v>
+        <v>386.893798828125</v>
       </c>
       <c r="FM3" t="n">
-        <v>356.1201477050781</v>
+        <v>385.6781005859375</v>
       </c>
       <c r="FN3" t="n">
-        <v>354.3378295898438</v>
+        <v>383.28955078125</v>
       </c>
       <c r="FO3" t="n">
-        <v>354.14208984375</v>
+        <v>378.7729187011719</v>
       </c>
       <c r="FP3" t="n">
-        <v>353.5010070800781</v>
+        <v>378.968017578125</v>
       </c>
       <c r="FQ3" t="n">
-        <v>352.6464538574219</v>
+        <v>377.8652038574219</v>
       </c>
       <c r="FR3" t="n">
-        <v>352.7316284179688</v>
+        <v>374.9521789550781</v>
       </c>
       <c r="FS3" t="n">
-        <v>353.6624755859375</v>
+        <v>375.2200622558594</v>
       </c>
       <c r="FT3" t="n">
-        <v>353.5587768554688</v>
+        <v>363.3877868652344</v>
       </c>
       <c r="FU3" t="n">
-        <v>350.8140869140625</v>
+        <v>366.8867492675781</v>
       </c>
       <c r="FV3" t="n">
-        <v>356.6220703125</v>
+        <v>354.6572875976562</v>
       </c>
       <c r="FW3" t="n">
-        <v>356.3296813964844</v>
+        <v>330.0625305175781</v>
       </c>
       <c r="FX3" t="n">
-        <v>358.5511779785156</v>
+        <v>328.9375</v>
       </c>
       <c r="FY3" t="n">
-        <v>362.1565551757812</v>
+        <v>320.0753479003906</v>
       </c>
       <c r="FZ3" t="n">
-        <v>362.0430603027344</v>
+        <v>315.0549926757812</v>
       </c>
       <c r="GA3" t="n">
-        <v>363.634521484375</v>
+        <v>393.9722595214844</v>
       </c>
       <c r="GB3" t="n">
-        <v>358.47021484375</v>
+        <v>393.5210266113281</v>
       </c>
       <c r="GC3" t="n">
-        <v>359.2830810546875</v>
+        <v>398.2764282226562</v>
       </c>
       <c r="GD3" t="n">
-        <v>363.2531433105469</v>
+        <v>330.1022338867188</v>
       </c>
       <c r="GE3" t="n">
-        <v>361.5688171386719</v>
+        <v>336.5221557617188</v>
       </c>
       <c r="GF3" t="n">
-        <v>362.1673583984375</v>
+        <v>338.1024780273438</v>
       </c>
       <c r="GG3" t="n">
-        <v>360.7966613769531</v>
+        <v>338.8721923828125</v>
       </c>
       <c r="GH3" t="n">
-        <v>356.0371704101562</v>
+        <v>341.8041381835938</v>
       </c>
       <c r="GI3" t="n">
-        <v>357.6670837402344</v>
+        <v>345.4662475585938</v>
       </c>
       <c r="GJ3" t="n">
-        <v>359.28662109375</v>
+        <v>346.9278259277344</v>
       </c>
       <c r="GK3" t="n">
-        <v>353.5914001464844</v>
+        <v>351.8351440429688</v>
       </c>
       <c r="GL3" t="n">
-        <v>353.5856628417969</v>
+        <v>360.978271484375</v>
       </c>
       <c r="GM3" t="n">
-        <v>354.4246826171875</v>
+        <v>385.8434448242188</v>
       </c>
       <c r="GN3" t="n">
-        <v>351.326416015625</v>
+        <v>395.5017395019531</v>
       </c>
       <c r="GO3" t="n">
-        <v>351.8445434570312</v>
+        <v>405.5010375976562</v>
       </c>
       <c r="GP3" t="n">
-        <v>352.6007690429688</v>
+        <v>424.0080261230469</v>
       </c>
       <c r="GQ3" t="n">
-        <v>349.6767578125</v>
+        <v>430.724365234375</v>
       </c>
       <c r="GR3" t="n">
-        <v>343.6527709960938</v>
+        <v>439.4011840820312</v>
       </c>
       <c r="GS3" t="n">
-        <v>343.9807739257812</v>
+        <v>443.1484375</v>
       </c>
       <c r="GT3" t="n">
-        <v>343.5625305175781</v>
+        <v>443.2362060546875</v>
       </c>
       <c r="GU3" t="n">
-        <v>336.3515319824219</v>
+        <v>433.171630859375</v>
       </c>
       <c r="GV3" t="n">
-        <v>340.5742797851562</v>
+        <v>421.8532104492188</v>
       </c>
       <c r="GW3" t="n">
-        <v>334.6643371582031</v>
+        <v>429.3689270019531</v>
       </c>
       <c r="GX3" t="n">
-        <v>336.1325988769531</v>
+        <v>438.7542724609375</v>
       </c>
       <c r="GY3" t="n">
-        <v>329.7036743164062</v>
+        <v>449.5983581542969</v>
       </c>
       <c r="GZ3" t="n">
-        <v>332.3497314453125</v>
+        <v>466.322509765625</v>
       </c>
       <c r="HA3" t="n">
-        <v>336.4546203613281</v>
+        <v>496.3428955078125</v>
       </c>
       <c r="HB3" t="n">
-        <v>334.6019287109375</v>
+        <v>518.4415283203125</v>
       </c>
       <c r="HC3" t="n">
-        <v>337.6305236816406</v>
+        <v>541.5686645507812</v>
       </c>
       <c r="HD3" t="n">
-        <v>329.4755859375</v>
+        <v>547.6406860351562</v>
       </c>
       <c r="HE3" t="n">
-        <v>333.2123718261719</v>
+        <v>542.55126953125</v>
       </c>
       <c r="HF3" t="n">
-        <v>333.4815368652344</v>
+        <v>555.4312133789062</v>
       </c>
       <c r="HG3" t="n">
-        <v>328.7030944824219</v>
+        <v>566.6643676757812</v>
       </c>
       <c r="HH3" t="n">
-        <v>330.205810546875</v>
+        <v>592.251220703125</v>
       </c>
       <c r="HI3" t="n">
-        <v>330.8132019042969</v>
+        <v>614.1561889648438</v>
       </c>
       <c r="HJ3" t="n">
-        <v>338.8678894042969</v>
+        <v>632.5919189453125</v>
       </c>
       <c r="HK3" t="n">
-        <v>335.8370971679688</v>
+        <v>635.7110595703125</v>
       </c>
       <c r="HL3" t="n">
-        <v>346.9547729492188</v>
+        <v>631.1984252929688</v>
       </c>
       <c r="HM3" t="n">
-        <v>352.3445434570312</v>
+        <v>626.7727661132812</v>
       </c>
       <c r="HN3" t="n">
-        <v>355.939208984375</v>
+        <v>250.720703125</v>
       </c>
       <c r="HO3" t="n">
-        <v>361.4820861816406</v>
+        <v>211.4823913574219</v>
       </c>
       <c r="HP3" t="n">
-        <v>363.8681945800781</v>
+        <v>253.4164733886719</v>
       </c>
       <c r="HQ3" t="n">
-        <v>362.9913940429688</v>
+        <v>314.5905456542969</v>
       </c>
       <c r="HR3" t="n">
-        <v>356.7848205566406</v>
+        <v>350.4337158203125</v>
       </c>
       <c r="HS3" t="n">
-        <v>359.6733093261719</v>
+        <v>733.578125</v>
       </c>
       <c r="HT3" t="n">
-        <v>358.9181518554688</v>
+        <v>648.3953857421875</v>
       </c>
       <c r="HU3" t="n">
-        <v>357.8270568847656</v>
+        <v>663.8829956054688</v>
       </c>
       <c r="HV3" t="n">
-        <v>356.3003845214844</v>
+        <v>685.0836181640625</v>
       </c>
       <c r="HW3" t="n">
-        <v>354.8342895507812</v>
+        <v>686.59619140625</v>
       </c>
       <c r="HX3" t="n">
-        <v>354.6656188964844</v>
+        <v>668.8391723632812</v>
       </c>
       <c r="HY3" t="n">
-        <v>353.7405700683594</v>
+        <v>654.4443359375</v>
       </c>
       <c r="HZ3" t="n">
-        <v>351.8329772949219</v>
+        <v>632.633544921875</v>
       </c>
       <c r="IA3" t="n">
-        <v>351.1426696777344</v>
+        <v>614.8258666992188</v>
       </c>
       <c r="IB3" t="n">
-        <v>350.263427734375</v>
+        <v>599.4791870117188</v>
       </c>
       <c r="IC3" t="n">
-        <v>350.0430297851562</v>
+        <v>587.3077392578125</v>
       </c>
       <c r="ID3" t="n">
-        <v>349.6526794433594</v>
+        <v>579.8070678710938</v>
       </c>
       <c r="IE3" t="n">
-        <v>349.9571533203125</v>
+        <v>575.9374389648438</v>
       </c>
       <c r="IF3" t="n">
-        <v>350.7201232910156</v>
+        <v>570.4849243164062</v>
       </c>
       <c r="IG3" t="n">
-        <v>352.3327941894531</v>
+        <v>570.859130859375</v>
       </c>
       <c r="IH3" t="n">
-        <v>356.0364074707031</v>
+        <v>571.25146484375</v>
       </c>
       <c r="II3" t="n">
-        <v>353.1871337890625</v>
+        <v>574.12841796875</v>
       </c>
       <c r="IJ3" t="n">
-        <v>354.8934631347656</v>
+        <v>588.2085571289062</v>
       </c>
       <c r="IK3" t="n">
-        <v>353.1426086425781</v>
+        <v>598.3651733398438</v>
       </c>
       <c r="IL3" t="n">
-        <v>353.9107055664062</v>
+        <v>612.9647827148438</v>
       </c>
       <c r="IM3" t="n">
-        <v>351.1706237792969</v>
+        <v>624.2048950195312</v>
       </c>
       <c r="IN3" t="n">
-        <v>348.8619384765625</v>
+        <v>644.0626220703125</v>
       </c>
       <c r="IO3" t="n">
-        <v>348.5635681152344</v>
+        <v>675.7628173828125</v>
       </c>
       <c r="IP3" t="n">
-        <v>337.1040954589844</v>
+        <v>613.5542602539062</v>
       </c>
       <c r="IQ3" t="n">
-        <v>336.5335083007812</v>
+        <v>676.7467041015625</v>
       </c>
       <c r="IR3" t="n">
-        <v>337.6335144042969</v>
+        <v>328.6691589355469</v>
       </c>
       <c r="IS3" t="n">
-        <v>342.1813659667969</v>
+        <v>338.1641235351562</v>
       </c>
       <c r="IT3" t="n">
-        <v>331.3293151855469</v>
+        <v>343.8837585449219</v>
       </c>
       <c r="IU3" t="n">
-        <v>334.2878112792969</v>
+        <v>342.6647338867188</v>
       </c>
       <c r="IV3" t="n">
-        <v>342.7625732421875</v>
+        <v>338.4217224121094</v>
       </c>
       <c r="IW3" t="n">
-        <v>328.3994750976562</v>
+        <v>338.6124267578125</v>
       </c>
       <c r="IX3" t="n">
-        <v>330.6654357910156</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>330.6201477050781</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>329.3770751953125</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>334.0601196289062</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>336.579833984375</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>334.8990783691406</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>342.623291015625</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>352.4633178710938</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>348.0724182128906</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>358.0008544921875</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>363.4615783691406</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>363.9548950195312</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>360.5177307128906</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>360.6477966308594</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>361.8861694335938</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>360.15087890625</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>360.2095031738281</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>361.4577331542969</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>358.2796325683594</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>359.1885375976562</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>358.9966735839844</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>360.8326110839844</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>358.8495483398438</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>360.1320495605469</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>360.2369995117188</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>360.1463012695312</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>360.9237365722656</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>361.4736328125</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>361.5824584960938</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>359.2020568847656</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>359.5180358886719</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>351.4807739257812</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>346.3816528320312</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>340.1632690429688</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>339.0301208496094</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>338.06787109375</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>339.3056640625</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>338.8716735839844</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>339.9531860351562</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>339.8745727539062</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>327.6771545410156</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>311.8462829589844</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>291.6068420410156</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>275.7796630859375</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>242.6326904296875</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>234.8082427978516</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>221.2733154296875</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>218.0819396972656</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>213.5636596679688</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>212.1381072998047</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>214.4774475097656</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>218.1328582763672</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>220.7724456787109</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>221.8335571289062</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>234.1874847412109</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>321.7572021484375</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>330.1900939941406</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>339.7416076660156</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>355.4202575683594</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>360.1365966796875</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>360.8330078125</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>360.8995056152344</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>369.3560791015625</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>373.3700256347656</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>377.972900390625</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>376.3431091308594</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>377.0018615722656</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>376.6709289550781</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>373.780029296875</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>372.9915466308594</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>374.1698608398438</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>371.4775085449219</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>375.3438110351562</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>378.68701171875</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>377.2453002929688</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>373.8507385253906</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>376.4366455078125</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>375.3784484863281</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>370.1877136230469</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>399.9702758789062</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>398.3385620117188</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>402.79931640625</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>414.0140991210938</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>417.43505859375</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>411.7088928222656</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>368.844970703125</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>369.036376953125</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>385.9568786621094</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>399.3226623535156</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>403.9518127441406</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>402.26708984375</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>458.3406066894531</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>489.5613708496094</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>486.1451416015625</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>479.3230895996094</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>472.4210510253906</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>480.4378967285156</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>503.8280334472656</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>452.2657165527344</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>437.7178039550781</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>399.3144226074219</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>309.2743225097656</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>306.5696411132812</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>287.9593200683594</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>293.6552734375</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>376.9544372558594</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>493.5318908691406</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>493.5387573242188</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>474.0400390625</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>463.0151977539062</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>457.1528015136719</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>455.1411437988281</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>452.6114196777344</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>450.172607421875</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>445.4833679199219</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>429.6964721679688</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>437.9305114746094</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>455.4414367675781</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>476.0399169921875</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>487.2817687988281</v>
+        <v>361.3598327636719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>577.6673583984375</v>
+        <v>921.9677124023438</v>
       </c>
       <c r="B4" t="n">
-        <v>567.0191040039062</v>
+        <v>955.5379028320312</v>
       </c>
       <c r="C4" t="n">
-        <v>577.6777954101562</v>
+        <v>964.7603149414062</v>
       </c>
       <c r="D4" t="n">
-        <v>595.064208984375</v>
+        <v>987.843994140625</v>
       </c>
       <c r="E4" t="n">
-        <v>620.0370483398438</v>
+        <v>996.2933349609375</v>
       </c>
       <c r="F4" t="n">
-        <v>663.0230712890625</v>
+        <v>1014.216064453125</v>
       </c>
       <c r="G4" t="n">
-        <v>717.4884033203125</v>
+        <v>1026.3251953125</v>
       </c>
       <c r="H4" t="n">
-        <v>771.6380004882812</v>
+        <v>1067.703002929688</v>
       </c>
       <c r="I4" t="n">
-        <v>822.6388549804688</v>
+        <v>1093.209716796875</v>
       </c>
       <c r="J4" t="n">
-        <v>883.7658081054688</v>
+        <v>1124.807495117188</v>
       </c>
       <c r="K4" t="n">
-        <v>946.4229125976562</v>
+        <v>1151.772338867188</v>
       </c>
       <c r="L4" t="n">
-        <v>1009.399047851562</v>
+        <v>1186.585205078125</v>
       </c>
       <c r="M4" t="n">
-        <v>1193.229614257812</v>
+        <v>1019.150756835938</v>
       </c>
       <c r="N4" t="n">
-        <v>1192.163818359375</v>
+        <v>1074.02783203125</v>
       </c>
       <c r="O4" t="n">
-        <v>1201.227905273438</v>
+        <v>1337.51953125</v>
       </c>
       <c r="P4" t="n">
-        <v>1205.854736328125</v>
+        <v>1351.185302734375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1208.525268554688</v>
+        <v>1370.015625</v>
       </c>
       <c r="R4" t="n">
-        <v>1220.969482421875</v>
+        <v>1385.94189453125</v>
       </c>
       <c r="S4" t="n">
-        <v>1230.28466796875</v>
+        <v>1396.282104492188</v>
       </c>
       <c r="T4" t="n">
-        <v>1230.931396484375</v>
+        <v>1409.46142578125</v>
       </c>
       <c r="U4" t="n">
-        <v>1246.554565429688</v>
+        <v>1427.171264648438</v>
       </c>
       <c r="V4" t="n">
-        <v>1247.487915039062</v>
+        <v>1445.100341796875</v>
       </c>
       <c r="W4" t="n">
-        <v>1246.28125</v>
+        <v>1458.736450195312</v>
       </c>
       <c r="X4" t="n">
-        <v>1240.504638671875</v>
+        <v>1472.5458984375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1231.923706054688</v>
+        <v>1486.417602539062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1234.104736328125</v>
+        <v>1500.935302734375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1240.349853515625</v>
+        <v>1522.20654296875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1251.743896484375</v>
+        <v>1548.003173828125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1265.037963867188</v>
+        <v>1578.551879882812</v>
       </c>
       <c r="AD4" t="n">
-        <v>1269.408203125</v>
+        <v>1601.659912109375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1278.434326171875</v>
+        <v>1624.5576171875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1294.797485351562</v>
+        <v>1648.855834960938</v>
       </c>
       <c r="AG4" t="n">
-        <v>1306.188842773438</v>
+        <v>1682.872192382812</v>
       </c>
       <c r="AH4" t="n">
-        <v>1341.023803710938</v>
+        <v>1717.649291992188</v>
       </c>
       <c r="AI4" t="n">
-        <v>1360.365356445312</v>
+        <v>1746.508666992188</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1365.202758789062</v>
+        <v>1774.281005859375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1370.013427734375</v>
+        <v>1798.133178710938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1376.267700195312</v>
+        <v>1817.431640625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1361.4296875</v>
+        <v>1840.663696289062</v>
       </c>
       <c r="AN4" t="n">
-        <v>1359.010009765625</v>
+        <v>1854.7265625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1357.755737304688</v>
+        <v>1874.517333984375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1356.77197265625</v>
+        <v>1902.474365234375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1352.404418945312</v>
+        <v>1914.93505859375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1347.82421875</v>
+        <v>1934.721313476562</v>
       </c>
       <c r="AS4" t="n">
-        <v>1347.414428710938</v>
+        <v>1939.493896484375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1345.407958984375</v>
+        <v>1942.614868164062</v>
       </c>
       <c r="AU4" t="n">
-        <v>1341.828247070312</v>
+        <v>1943.078369140625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1339.301513671875</v>
+        <v>1943.8291015625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1335.097778320312</v>
+        <v>1946.865844726562</v>
       </c>
       <c r="AX4" t="n">
-        <v>1328.492309570312</v>
+        <v>1948.632568359375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1326.661010742188</v>
+        <v>1952.53564453125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1327.600341796875</v>
+        <v>1943.82568359375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1328.907958984375</v>
+        <v>1927.1875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1331.31591796875</v>
+        <v>1894.203857421875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1327.329833984375</v>
+        <v>2085.561767578125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1326.194702148438</v>
+        <v>2089.860595703125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1323.011108398438</v>
+        <v>2095.32666015625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1327.762939453125</v>
+        <v>2098.51025390625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1323.954956054688</v>
+        <v>2102.5390625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1317.525512695312</v>
+        <v>2102.379150390625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1292.416259765625</v>
+        <v>2102.171142578125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1272.465698242188</v>
+        <v>2102.72021484375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1252.498046875</v>
+        <v>2103.19287109375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1233.912719726562</v>
+        <v>2103.0673828125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1215.911743164062</v>
+        <v>2102.993408203125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1202.619995117188</v>
+        <v>2102.97607421875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1169.516845703125</v>
+        <v>2102.8916015625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1158.124145507812</v>
+        <v>2102.86376953125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1145.925537109375</v>
+        <v>2102.79931640625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1138.09765625</v>
+        <v>2102.729736328125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1126.547119140625</v>
+        <v>2102.66162109375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1117.496459960938</v>
+        <v>2102.580078125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1110.056518554688</v>
+        <v>2102.209228515625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1109.54833984375</v>
+        <v>2101.685546875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1108.951782226562</v>
+        <v>2073.90283203125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1108.227172851562</v>
+        <v>2077.77490234375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1109.2109375</v>
+        <v>2031.6181640625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1109.834594726562</v>
+        <v>2041.10986328125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1110.7646484375</v>
+        <v>2036.1103515625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1116.80419921875</v>
+        <v>2036.75244140625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1127.984375</v>
+        <v>2054.0654296875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1140.536254882812</v>
+        <v>2042.899169921875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1144.505981445312</v>
+        <v>2048.881103515625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1145.296752929688</v>
+        <v>2020.84375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1145.578979492188</v>
+        <v>2018.397338867188</v>
       </c>
       <c r="CH4" t="n">
-        <v>1145.916137695312</v>
+        <v>2012.565307617188</v>
       </c>
       <c r="CI4" t="n">
-        <v>1150.664428710938</v>
+        <v>2009.760986328125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1155.2548828125</v>
+        <v>2005.680908203125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1153.348876953125</v>
+        <v>1999.459350585938</v>
       </c>
       <c r="CL4" t="n">
-        <v>1152.154174804688</v>
+        <v>1995.053955078125</v>
       </c>
       <c r="CM4" t="n">
-        <v>1149.704223632812</v>
+        <v>1990.659057617188</v>
       </c>
       <c r="CN4" t="n">
-        <v>1149.714477539062</v>
+        <v>1997.421875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1148.810302734375</v>
+        <v>1998.492919921875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1148.82958984375</v>
+        <v>1996.924072265625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1149.170288085938</v>
+        <v>1975.53466796875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1149.834838867188</v>
+        <v>1972.361938476562</v>
       </c>
       <c r="CS4" t="n">
-        <v>1160.697387695312</v>
+        <v>1980.473876953125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1183.667114257812</v>
+        <v>1981.805053710938</v>
       </c>
       <c r="CU4" t="n">
-        <v>1197.410034179688</v>
+        <v>1983.488403320312</v>
       </c>
       <c r="CV4" t="n">
-        <v>1201.776489257812</v>
+        <v>1976.96728515625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1220.203735351562</v>
+        <v>1980.452514648438</v>
       </c>
       <c r="CX4" t="n">
-        <v>1241.581176757812</v>
+        <v>1977.783935546875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1247.518676757812</v>
+        <v>1971.376342773438</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1252.131225585938</v>
+        <v>1968.068237304688</v>
       </c>
       <c r="DA4" t="n">
-        <v>1252.2236328125</v>
+        <v>1950.487060546875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1253.90283203125</v>
+        <v>1923.0986328125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1256.81787109375</v>
+        <v>1929.4423828125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1260.642944335938</v>
+        <v>1937.134033203125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1255.3916015625</v>
+        <v>2092.090087890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1250.444946289062</v>
+        <v>2080.529052734375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1245.327392578125</v>
+        <v>2080.5908203125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1221.841064453125</v>
+        <v>2080.384521484375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1219.344116210938</v>
+        <v>2079.674560546875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1208.68505859375</v>
+        <v>2079.65576171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1178.336669921875</v>
+        <v>1946.577758789062</v>
       </c>
       <c r="DL4" t="n">
-        <v>1161.040893554688</v>
+        <v>1957.9130859375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1142.570678710938</v>
+        <v>1930.974365234375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1128.878173828125</v>
+        <v>1898.931030273438</v>
       </c>
       <c r="DO4" t="n">
-        <v>1116.61572265625</v>
+        <v>1876.06005859375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1163.37548828125</v>
+        <v>1873.27197265625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1152.13818359375</v>
+        <v>1863.61181640625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1133.615600585938</v>
+        <v>1855.277465820312</v>
       </c>
       <c r="DS4" t="n">
-        <v>1109.716186523438</v>
+        <v>1849.139770507812</v>
       </c>
       <c r="DT4" t="n">
-        <v>1132.648559570312</v>
+        <v>1827.570678710938</v>
       </c>
       <c r="DU4" t="n">
-        <v>1159.187377929688</v>
+        <v>1824.556884765625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1167.7119140625</v>
+        <v>1824.0576171875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1185.419921875</v>
+        <v>1824.0400390625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1184.688720703125</v>
+        <v>1824.771728515625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1176.922485351562</v>
+        <v>1828.760009765625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1183.876342773438</v>
+        <v>1837.738891601562</v>
       </c>
       <c r="EA4" t="n">
-        <v>1191.823364257812</v>
+        <v>1861.931640625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1195.856201171875</v>
+        <v>1900.861083984375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1200.691162109375</v>
+        <v>1924.007690429688</v>
       </c>
       <c r="ED4" t="n">
-        <v>1211.156372070312</v>
+        <v>1947.707641601562</v>
       </c>
       <c r="EE4" t="n">
-        <v>1243.476928710938</v>
+        <v>1945.632080078125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1269.274291992188</v>
+        <v>1947.625854492188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1322.56494140625</v>
+        <v>1946.8447265625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1338.684936523438</v>
+        <v>1948.02734375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1359.225952148438</v>
+        <v>1943.82373046875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1377.713012695312</v>
+        <v>1926.383178710938</v>
       </c>
       <c r="EK4" t="n">
-        <v>1391.382568359375</v>
+        <v>1923.337524414062</v>
       </c>
       <c r="EL4" t="n">
-        <v>1398.502197265625</v>
+        <v>1915.481689453125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1412.151611328125</v>
+        <v>1910.289672851562</v>
       </c>
       <c r="EN4" t="n">
-        <v>1430.658081054688</v>
+        <v>1897.277587890625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1445.262573242188</v>
+        <v>1889.913818359375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1452.541259765625</v>
+        <v>1876.011596679688</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1464.462524414062</v>
+        <v>1848.99365234375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1471.33935546875</v>
+        <v>1848.035400390625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1483.330078125</v>
+        <v>1849.557739257812</v>
       </c>
       <c r="ET4" t="n">
-        <v>1471.72802734375</v>
+        <v>1848.171142578125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1478.754150390625</v>
+        <v>1847.911254882812</v>
       </c>
       <c r="EV4" t="n">
-        <v>1488.067626953125</v>
+        <v>1852.223266601562</v>
       </c>
       <c r="EW4" t="n">
-        <v>1550.032836914062</v>
+        <v>1847.614013671875</v>
       </c>
       <c r="EX4" t="n">
-        <v>1603.202758789062</v>
+        <v>1829.005615234375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1649.6181640625</v>
+        <v>1824.193237304688</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1662.56103515625</v>
+        <v>1812.546997070312</v>
       </c>
       <c r="FA4" t="n">
-        <v>1719.750610351562</v>
+        <v>1801.8662109375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1743.385864257812</v>
+        <v>1788.681396484375</v>
       </c>
       <c r="FC4" t="n">
-        <v>1807.108520507812</v>
+        <v>1767.81689453125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1852.6201171875</v>
+        <v>1724.59619140625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1870.291015625</v>
+        <v>1701.959716796875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1896.525756835938</v>
+        <v>1677.623413085938</v>
       </c>
       <c r="FG4" t="n">
-        <v>1966.69140625</v>
+        <v>1660.440551757812</v>
       </c>
       <c r="FH4" t="n">
-        <v>1988.517578125</v>
+        <v>1613.354125976562</v>
       </c>
       <c r="FI4" t="n">
-        <v>2061.00537109375</v>
+        <v>1586.245239257812</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2109.150634765625</v>
+        <v>1542.38623046875</v>
       </c>
       <c r="FK4" t="n">
-        <v>2156.0810546875</v>
+        <v>1499.955200195312</v>
       </c>
       <c r="FL4" t="n">
-        <v>2157.3798828125</v>
+        <v>1478.21630859375</v>
       </c>
       <c r="FM4" t="n">
-        <v>2170.771484375</v>
+        <v>1447.694580078125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2205.906494140625</v>
+        <v>1430.219360351562</v>
       </c>
       <c r="FO4" t="n">
-        <v>2237.988525390625</v>
+        <v>1391.286376953125</v>
       </c>
       <c r="FP4" t="n">
-        <v>2268.751708984375</v>
+        <v>1353.25439453125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2296.927978515625</v>
+        <v>1335.613647460938</v>
       </c>
       <c r="FR4" t="n">
-        <v>2403.1611328125</v>
+        <v>1309.638916015625</v>
       </c>
       <c r="FS4" t="n">
-        <v>2414.7451171875</v>
+        <v>1280.438354492188</v>
       </c>
       <c r="FT4" t="n">
-        <v>2388.607666015625</v>
+        <v>1221.009765625</v>
       </c>
       <c r="FU4" t="n">
-        <v>2360.486572265625</v>
+        <v>1197.876220703125</v>
       </c>
       <c r="FV4" t="n">
-        <v>2397.544189453125</v>
+        <v>1143.745971679688</v>
       </c>
       <c r="FW4" t="n">
-        <v>2327.027587890625</v>
+        <v>1127.318969726562</v>
       </c>
       <c r="FX4" t="n">
-        <v>2336.306884765625</v>
+        <v>1116.623413085938</v>
       </c>
       <c r="FY4" t="n">
-        <v>2372.72802734375</v>
+        <v>1114.232421875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2317.4833984375</v>
+        <v>1111.100341796875</v>
       </c>
       <c r="GA4" t="n">
-        <v>2315.462646484375</v>
+        <v>1256.404418945312</v>
       </c>
       <c r="GB4" t="n">
-        <v>2252.3251953125</v>
+        <v>1239.619873046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>2264.518310546875</v>
+        <v>1228.206176757812</v>
       </c>
       <c r="GD4" t="n">
-        <v>2296.90185546875</v>
+        <v>1058.53564453125</v>
       </c>
       <c r="GE4" t="n">
-        <v>2271.92919921875</v>
+        <v>1030.132080078125</v>
       </c>
       <c r="GF4" t="n">
-        <v>2288.28662109375</v>
+        <v>1017.875915527344</v>
       </c>
       <c r="GG4" t="n">
-        <v>2352.310302734375</v>
+        <v>1011.172790527344</v>
       </c>
       <c r="GH4" t="n">
-        <v>2266.69287109375</v>
+        <v>989.3809204101562</v>
       </c>
       <c r="GI4" t="n">
-        <v>2274.93017578125</v>
+        <v>963.3368530273438</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2326.809814453125</v>
+        <v>952.7384643554688</v>
       </c>
       <c r="GK4" t="n">
-        <v>2261.1357421875</v>
+        <v>915.9507446289062</v>
       </c>
       <c r="GL4" t="n">
-        <v>2266.214599609375</v>
+        <v>876.0828857421875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2245.810791015625</v>
+        <v>842.4075927734375</v>
       </c>
       <c r="GN4" t="n">
-        <v>2237.89794921875</v>
+        <v>823.440673828125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2237.8798828125</v>
+        <v>796.5181884765625</v>
       </c>
       <c r="GP4" t="n">
-        <v>2209.36962890625</v>
+        <v>776.3521728515625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2172.5166015625</v>
+        <v>763.3896484375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2175.302001953125</v>
+        <v>742.6358642578125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2145.835205078125</v>
+        <v>728.548095703125</v>
       </c>
       <c r="GT4" t="n">
-        <v>2107.216796875</v>
+        <v>716.5445556640625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2122.10498046875</v>
+        <v>701.9176635742188</v>
       </c>
       <c r="GV4" t="n">
-        <v>2065.834228515625</v>
+        <v>690.34912109375</v>
       </c>
       <c r="GW4" t="n">
-        <v>2047.102172851562</v>
+        <v>661.0659790039062</v>
       </c>
       <c r="GX4" t="n">
-        <v>2053.129638671875</v>
+        <v>635.9422607421875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2050.92724609375</v>
+        <v>613.7842407226562</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2058.74072265625</v>
+        <v>588.6983642578125</v>
       </c>
       <c r="HA4" t="n">
-        <v>2060.179443359375</v>
+        <v>556.3085327148438</v>
       </c>
       <c r="HB4" t="n">
-        <v>2062.033935546875</v>
+        <v>546.5010986328125</v>
       </c>
       <c r="HC4" t="n">
-        <v>2035.226928710938</v>
+        <v>548.5364990234375</v>
       </c>
       <c r="HD4" t="n">
-        <v>2075.829345703125</v>
+        <v>588.968017578125</v>
       </c>
       <c r="HE4" t="n">
-        <v>2040.733154296875</v>
+        <v>609.9879150390625</v>
       </c>
       <c r="HF4" t="n">
-        <v>2037.029907226562</v>
+        <v>596.8282470703125</v>
       </c>
       <c r="HG4" t="n">
-        <v>2039.0419921875</v>
+        <v>597.51123046875</v>
       </c>
       <c r="HH4" t="n">
-        <v>2097.94140625</v>
+        <v>601.28515625</v>
       </c>
       <c r="HI4" t="n">
-        <v>2070.6513671875</v>
+        <v>592.2391357421875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2093.02978515625</v>
+        <v>579.4636840820312</v>
       </c>
       <c r="HK4" t="n">
-        <v>2065.7841796875</v>
+        <v>579.4613037109375</v>
       </c>
       <c r="HL4" t="n">
-        <v>2119.85693359375</v>
+        <v>583.6867065429688</v>
       </c>
       <c r="HM4" t="n">
-        <v>2116.889404296875</v>
+        <v>586.6622924804688</v>
       </c>
       <c r="HN4" t="n">
-        <v>2122.0283203125</v>
+        <v>535.0021362304688</v>
       </c>
       <c r="HO4" t="n">
-        <v>2215.15625</v>
+        <v>524.7199096679688</v>
       </c>
       <c r="HP4" t="n">
-        <v>2199.190185546875</v>
+        <v>531.7989501953125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2199.5888671875</v>
+        <v>471.1769409179688</v>
       </c>
       <c r="HR4" t="n">
-        <v>2105.072021484375</v>
+        <v>416.5003967285156</v>
       </c>
       <c r="HS4" t="n">
-        <v>2125.18017578125</v>
+        <v>459.6295776367188</v>
       </c>
       <c r="HT4" t="n">
-        <v>2118.455810546875</v>
+        <v>584.67578125</v>
       </c>
       <c r="HU4" t="n">
-        <v>2095.714599609375</v>
+        <v>582.5680541992188</v>
       </c>
       <c r="HV4" t="n">
-        <v>2087.727294921875</v>
+        <v>580.0900268554688</v>
       </c>
       <c r="HW4" t="n">
-        <v>2081.97314453125</v>
+        <v>603.4817504882812</v>
       </c>
       <c r="HX4" t="n">
-        <v>2076.41259765625</v>
+        <v>646.450439453125</v>
       </c>
       <c r="HY4" t="n">
-        <v>2070.681640625</v>
+        <v>683.21044921875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2054.239013671875</v>
+        <v>718.5591430664062</v>
       </c>
       <c r="IA4" t="n">
-        <v>2039.230102539062</v>
+        <v>761.0401611328125</v>
       </c>
       <c r="IB4" t="n">
-        <v>2029.657104492188</v>
+        <v>797.4705810546875</v>
       </c>
       <c r="IC4" t="n">
-        <v>2028.9794921875</v>
+        <v>828.844970703125</v>
       </c>
       <c r="ID4" t="n">
-        <v>2032.647094726562</v>
+        <v>852.5776977539062</v>
       </c>
       <c r="IE4" t="n">
-        <v>2031.117553710938</v>
+        <v>871.6709594726562</v>
       </c>
       <c r="IF4" t="n">
-        <v>2027.963745117188</v>
+        <v>888.3464965820312</v>
       </c>
       <c r="IG4" t="n">
-        <v>2030.20849609375</v>
+        <v>889.535400390625</v>
       </c>
       <c r="IH4" t="n">
-        <v>2048.7783203125</v>
+        <v>888.0943603515625</v>
       </c>
       <c r="II4" t="n">
-        <v>2056.932373046875</v>
+        <v>880.4573974609375</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2082.4189453125</v>
+        <v>844.134765625</v>
       </c>
       <c r="IK4" t="n">
-        <v>2107.236328125</v>
+        <v>812.5150756835938</v>
       </c>
       <c r="IL4" t="n">
-        <v>2128.169189453125</v>
+        <v>778.6860961914062</v>
       </c>
       <c r="IM4" t="n">
-        <v>2066.81640625</v>
+        <v>747.6407470703125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2045.222412109375</v>
+        <v>649.42138671875</v>
       </c>
       <c r="IO4" t="n">
-        <v>2053.438232421875</v>
+        <v>607.9986572265625</v>
       </c>
       <c r="IP4" t="n">
-        <v>2044.7119140625</v>
+        <v>484.239501953125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2043.282470703125</v>
+        <v>619.5147705078125</v>
       </c>
       <c r="IR4" t="n">
-        <v>2028.158935546875</v>
+        <v>624.5313110351562</v>
       </c>
       <c r="IS4" t="n">
-        <v>2037.211791992188</v>
+        <v>618.989501953125</v>
       </c>
       <c r="IT4" t="n">
-        <v>2048.02099609375</v>
+        <v>608.5133666992188</v>
       </c>
       <c r="IU4" t="n">
-        <v>2063.558349609375</v>
+        <v>597.0306396484375</v>
       </c>
       <c r="IV4" t="n">
-        <v>2069.517578125</v>
+        <v>597.52587890625</v>
       </c>
       <c r="IW4" t="n">
-        <v>2057.491455078125</v>
+        <v>606.4216918945312</v>
       </c>
       <c r="IX4" t="n">
-        <v>2057.05126953125</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2064.84130859375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2060.020263671875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2086.841064453125</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2080.974609375</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2045.480834960938</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2045.645263671875</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2075.88623046875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2054.6005859375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2100.05859375</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2173.92431640625</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2165.33056640625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2129.871337890625</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2189.497802734375</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2148.10498046875</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2071.2568359375</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2075.744384765625</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2135.792236328125</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2072.691650390625</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2117.236328125</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2200.28564453125</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2085.977783203125</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2043.437255859375</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2055.491943359375</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2057.13232421875</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2051.864013671875</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2055.7607421875</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2053.74560546875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2056.435302734375</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2070.21630859375</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2133.31640625</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2108.764404296875</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2234.8330078125</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2198.764404296875</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2220.03515625</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2227.93994140625</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2220.76513671875</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2214.4384765625</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2190.97265625</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2201.263916015625</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2243.70654296875</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2262.847900390625</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2287.820068359375</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2331.474365234375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2331.330078125</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2367.458251953125</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2353.25146484375</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2356.5712890625</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2365.11572265625</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2338.56201171875</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2302.87939453125</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2282.25439453125</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2257.593017578125</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2198.5166015625</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2106.862548828125</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2226.458984375</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2189.0009765625</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2189.3486328125</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2118.5419921875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2061.730712890625</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>1815.565185546875</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1789.425048828125</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1753.252075195312</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1729.352661132812</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1682.760375976562</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1645.812622070312</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1614.47412109375</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1575.214111328125</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1523.468872070312</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1473.446411132812</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1414.016479492188</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1364.97412109375</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1326.393432617188</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1278.722900390625</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1222.3037109375</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>1170.014526367188</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>1108.183227539062</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>1044.454223632812</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>981.1298217773438</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>917.5341796875</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>892.537841796875</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>865.9955444335938</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>846.7354736328125</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>836.8984375</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>849.3300170898438</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>976.6261596679688</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>1001.7568359375</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>1031.764404296875</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>1035.802001953125</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>1059.4833984375</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>1106.943115234375</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>1078.146850585938</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>1014.869445800781</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>958.0680541992188</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>953.2322998046875</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>972.6934204101562</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>930.267822265625</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>842.150390625</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>738.288330078125</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>689.5869750976562</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>687.6565551757812</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>820.3831787109375</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>842.8119506835938</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>880.459228515625</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>847.9761962890625</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>607.305419921875</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>552.7804565429688</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>555.1365966796875</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>555.381103515625</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>558.5376586914062</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>565.2061157226562</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>568.0120239257812</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>578.177001953125</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>589.8350830078125</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>598.3870239257812</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>611.3109130859375</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>610.2669677734375</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>604.9986572265625</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>595.4693603515625</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>575.8151245117188</v>
+        <v>650.0755615234375</v>
       </c>
     </row>
   </sheetData>
